--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689972.7689067387</v>
+        <v>588276.5197589325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393627.6575328314</v>
+        <v>393627.6575328318</v>
       </c>
     </row>
     <row r="8">
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.5057460574135</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0781689449873</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>127.8629770636607</v>
       </c>
       <c r="W11" t="n">
         <v>274.3489689505702</v>
       </c>
       <c r="X11" t="n">
-        <v>183.7061999568173</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>151.9930430333047</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>41.37343134122169</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>104.6672283897153</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.399185363825382</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.23694401510255</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.76634391298196</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1621,53 +1621,53 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>239.2550021054925</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>250.0781689449873</v>
+      </c>
+      <c r="V14" t="n">
         <v>274.3489689505702</v>
       </c>
-      <c r="I14" t="n">
-        <v>206.1329861685091</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>138.0543947935843</v>
-      </c>
-      <c r="S14" t="n">
-        <v>206.9021266852166</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>265.9173718572451</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>52.71935206678723</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U15" t="n">
-        <v>109.8982095021234</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="I16" t="n">
-        <v>17.96913813056397</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.54969484442688</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>19.88364031691906</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>274.3489689505702</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.646571851662</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9021266852166</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>274.3489689505702</v>
       </c>
       <c r="W17" t="n">
-        <v>195.3098193290143</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>87.9000603680451</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>103.4183374642068</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>129.4024732919099</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>129.4024732919099</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>265.917371857245</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>274.3489689505702</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="W20" t="n">
-        <v>274.3489689505702</v>
+        <v>103.5921770580779</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
-        <v>96.75946292774104</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1962251491922</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>14.67755918988024</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>129.4024732919099</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>86.37926682378804</v>
+        <v>135.4577122148118</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.0058835612621</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>328.2564647766019</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>170.370432068526</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.4450345452502</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0039583405388</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2417,7 +2417,7 @@
         <v>116.2672987472278</v>
       </c>
       <c r="I24" t="n">
-        <v>73.60974420748029</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>73.85140616125676</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S24" t="n">
-        <v>173.3810109266149</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>211.0193797609743</v>
@@ -2456,16 +2456,16 @@
         <v>237.1635720456723</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>247.4866941543536</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8928158418887494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.7103280463895</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>288.611725953294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.226658931720117</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>106.5380383044771</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>328.2564647766019</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>170.370432068526</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.78399627252702</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.7636998243551</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.4450345452502</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0039583405388</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>13.84083891140817</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>20.38893172869694</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.7642432161397</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>81.44081603556506</v>
+        <v>116.2672987472278</v>
       </c>
       <c r="I27" t="n">
         <v>73.60974420748028</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1635720456723</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12.78344582794285</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>166.4742609000564</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>221.1145349868958</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>54.4322392487725</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.0058835612621</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.2564647766019</v>
       </c>
       <c r="I29" t="n">
-        <v>127.369635100095</v>
+        <v>170.370432068526</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>291.5772960490883</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58.30609305705244</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -2879,10 +2879,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>116.2672987472278</v>
       </c>
       <c r="I30" t="n">
-        <v>73.60974420748029</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>73.85140616125676</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S30" t="n">
-        <v>173.3810109266149</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T30" t="n">
-        <v>211.0193797609743</v>
+        <v>135.943276728327</v>
       </c>
       <c r="U30" t="n">
         <v>237.1635720456723</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>155.1622436727891</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>158.5169421653914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>140.1361349815415</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.13113995500206</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.39390568586352</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.84291234792573</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>417.0058835612621</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>28.22115280428327</v>
       </c>
       <c r="I32" t="n">
         <v>170.370432068526</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S32" t="n">
-        <v>185.7636998243551</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.4450345452502</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>67.61656663821273</v>
+        <v>250.0039583405388</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.0045090376023</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3125,10 +3125,10 @@
         <v>147.7642432161397</v>
       </c>
       <c r="H33" t="n">
-        <v>116.2672987472278</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>73.60974420748029</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.85140616125676</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S33" t="n">
-        <v>173.3810109266149</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>7.589409874308944</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3173,7 +3173,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>143.3679579887919</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>158.5169421653914</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>140.1361349815415</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.611725953294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>153.4093091824308</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.0058835612621</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.7636998243551</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.4450345452502</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>206.2757388150449</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>4.439096545022541</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>29.2386522896761</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.7642432161397</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>116.2672987472278</v>
       </c>
       <c r="I36" t="n">
-        <v>73.60974420748029</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>73.85140616125676</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S36" t="n">
-        <v>173.3810109266149</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T36" t="n">
-        <v>211.0193797609743</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.1635720456723</v>
@@ -3407,13 +3407,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>54.0697940678733</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.23536145434242</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.2497955873789</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>221.7712395483454</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>275.8456819500097</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>170.370432068526</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.78399627252705</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.7636998243551</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.4450345452502</v>
       </c>
       <c r="U38" t="n">
-        <v>48.38680884374241</v>
+        <v>250.0039583405388</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -3593,16 +3593,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>16.82477424351778</v>
       </c>
       <c r="G39" t="n">
-        <v>147.7642432161397</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>73.60974420748029</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>173.3810109266149</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.0193797609743</v>
       </c>
       <c r="U39" t="n">
         <v>237.1635720456723</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>53.1039583172321</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.2497955873789</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>76.58858929763522</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>151.7103280463895</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>196.9486559217432</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>109.3599545381208</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.0058835612621</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>328.2564647766019</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>170.370432068526</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0039583405388</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -3821,25 +3821,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>97.22276060097364</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.7642432161397</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>116.2672987472278</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>68.77065733634991</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S42" t="n">
-        <v>173.3810109266149</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T42" t="n">
         <v>211.0193797609743</v>
@@ -3878,7 +3878,7 @@
         <v>237.1635720456723</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3887,7 +3887,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>136.6198920172217</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>196.9120199512745</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.0058835612621</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>79.78399627252705</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S44" t="n">
         <v>185.7636998243551</v>
       </c>
       <c r="T44" t="n">
-        <v>214.4450345452502</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.0039583405388</v>
       </c>
       <c r="V44" t="n">
-        <v>2.099658812510811</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>335.1736464336145</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>85.64965113074639</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>116.2672987472278</v>
       </c>
       <c r="I45" t="n">
-        <v>73.60974420748029</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>73.85140616125676</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T45" t="n">
-        <v>211.0193797609743</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1635720456723</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>106.3542643320078</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.4180117050531</v>
+        <v>167.878872980506</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>70.56560621864469</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -5041,22 +5041,22 @@
         <v>21.94791751604561</v>
       </c>
       <c r="J11" t="n">
-        <v>21.94791751604561</v>
+        <v>21.9479175160456</v>
       </c>
       <c r="K11" t="n">
-        <v>129.2129831052409</v>
+        <v>129.2129831052412</v>
       </c>
       <c r="L11" t="n">
-        <v>317.2678444246599</v>
+        <v>317.2678444246602</v>
       </c>
       <c r="M11" t="n">
-        <v>555.39107161961</v>
+        <v>555.3910716196103</v>
       </c>
       <c r="N11" t="n">
-        <v>790.5249455637493</v>
+        <v>790.5249455637496</v>
       </c>
       <c r="O11" t="n">
-        <v>975.6458363697328</v>
+        <v>975.645836369733</v>
       </c>
       <c r="P11" t="n">
         <v>1089.494661134058</v>
@@ -5071,19 +5071,19 @@
         <v>957.9469921723975</v>
       </c>
       <c r="T11" t="n">
-        <v>737.2341173669292</v>
+        <v>957.9469921723975</v>
       </c>
       <c r="U11" t="n">
-        <v>484.6299063113865</v>
+        <v>705.3427811168548</v>
       </c>
       <c r="V11" t="n">
-        <v>484.6299063113865</v>
+        <v>576.1882588303288</v>
       </c>
       <c r="W11" t="n">
-        <v>207.5097356542449</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="X11" t="n">
-        <v>21.94791751604561</v>
+        <v>299.0680881731872</v>
       </c>
       <c r="Y11" t="n">
         <v>21.94791751604561</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.4948566897485</v>
+        <v>304.6592442472264</v>
       </c>
       <c r="C12" t="n">
-        <v>398.0825824227122</v>
+        <v>304.6592442472264</v>
       </c>
       <c r="D12" t="n">
-        <v>237.302466183744</v>
+        <v>304.6592442472264</v>
       </c>
       <c r="E12" t="n">
-        <v>63.73926230515843</v>
+        <v>304.6592442472264</v>
       </c>
       <c r="F12" t="n">
-        <v>63.73926230515843</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="G12" t="n">
-        <v>63.73926230515843</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="H12" t="n">
         <v>21.94791751604561</v>
@@ -5126,46 +5126,46 @@
         <v>21.94791751604561</v>
       </c>
       <c r="L12" t="n">
-        <v>78.97359501831988</v>
+        <v>243.3268292033436</v>
       </c>
       <c r="M12" t="n">
-        <v>350.5790742793844</v>
+        <v>514.932308464408</v>
       </c>
       <c r="N12" t="n">
-        <v>622.1845535404489</v>
+        <v>786.5377877254725</v>
       </c>
       <c r="O12" t="n">
-        <v>867.8978749056491</v>
+        <v>1032.251109090673</v>
       </c>
       <c r="P12" t="n">
-        <v>1043.027976024176</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Q12" t="n">
         <v>1097.395875802281</v>
       </c>
       <c r="R12" t="n">
-        <v>991.6714026813561</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S12" t="n">
-        <v>991.6714026813561</v>
+        <v>912.9513601587956</v>
       </c>
       <c r="T12" t="n">
-        <v>991.6714026813561</v>
+        <v>697.7797171588394</v>
       </c>
       <c r="U12" t="n">
-        <v>991.6714026813561</v>
+        <v>458.1875705434937</v>
       </c>
       <c r="V12" t="n">
-        <v>991.6714026813561</v>
+        <v>458.1875705434937</v>
       </c>
       <c r="W12" t="n">
-        <v>991.6714026813561</v>
+        <v>458.1875705434937</v>
       </c>
       <c r="X12" t="n">
-        <v>991.6714026813561</v>
+        <v>458.1875705434937</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.0307096166837</v>
+        <v>458.1875705434937</v>
       </c>
     </row>
     <row r="13">
@@ -5217,22 +5217,22 @@
         <v>152.6574864977728</v>
       </c>
       <c r="P13" t="n">
-        <v>143.1633598676461</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.98462853925972</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="R13" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="S13" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="T13" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="U13" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="V13" t="n">
         <v>21.94791751604561</v>
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>748.954945015613</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="C14" t="n">
-        <v>748.954945015613</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="D14" t="n">
-        <v>748.954945015613</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="E14" t="n">
-        <v>748.954945015613</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="F14" t="n">
-        <v>748.954945015613</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="G14" t="n">
-        <v>507.2832257171358</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H14" t="n">
-        <v>230.1630550599942</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I14" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J14" t="n">
-        <v>21.94791751604562</v>
+        <v>21.94791751604566</v>
       </c>
       <c r="K14" t="n">
-        <v>129.2129831052412</v>
+        <v>129.212983105241</v>
       </c>
       <c r="L14" t="n">
-        <v>317.2678444246601</v>
+        <v>317.26784442466</v>
       </c>
       <c r="M14" t="n">
-        <v>555.39107161961</v>
+        <v>555.3910716196102</v>
       </c>
       <c r="N14" t="n">
-        <v>790.5249455637494</v>
+        <v>790.5249455637496</v>
       </c>
       <c r="O14" t="n">
-        <v>975.6458363697329</v>
+        <v>975.6458363697332</v>
       </c>
       <c r="P14" t="n">
         <v>1089.494661134058</v>
@@ -5302,28 +5302,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R14" t="n">
-        <v>957.9469921723975</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S14" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T14" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U14" t="n">
-        <v>748.954945015613</v>
+        <v>844.7916647467382</v>
       </c>
       <c r="V14" t="n">
-        <v>748.954945015613</v>
+        <v>567.6714940895965</v>
       </c>
       <c r="W14" t="n">
-        <v>748.954945015613</v>
+        <v>567.6714940895965</v>
       </c>
       <c r="X14" t="n">
-        <v>748.954945015613</v>
+        <v>567.6714940895965</v>
       </c>
       <c r="Y14" t="n">
-        <v>748.954945015613</v>
+        <v>299.0680881731873</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.7606085618428</v>
+        <v>197.483398739003</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7606085618428</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7606085618428</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="E15" t="n">
-        <v>28.7606085618428</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="F15" t="n">
-        <v>28.7606085618428</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="G15" t="n">
-        <v>28.7606085618428</v>
+        <v>144.2315279644704</v>
       </c>
       <c r="H15" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I15" t="n">
-        <v>28.7606085618428</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J15" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K15" t="n">
-        <v>137.2905245750913</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="L15" t="n">
-        <v>308.4715959149514</v>
+        <v>133.3414947964249</v>
       </c>
       <c r="M15" t="n">
-        <v>580.0770751760159</v>
+        <v>404.9469740574894</v>
       </c>
       <c r="N15" t="n">
-        <v>851.6825544370804</v>
+        <v>676.5524533185539</v>
       </c>
       <c r="O15" t="n">
-        <v>1097.395875802281</v>
+        <v>922.2657746837542</v>
       </c>
       <c r="P15" t="n">
         <v>1097.395875802281</v>
@@ -5387,22 +5387,22 @@
         <v>1097.395875802281</v>
       </c>
       <c r="T15" t="n">
-        <v>1097.395875802281</v>
+        <v>882.2242328023247</v>
       </c>
       <c r="U15" t="n">
-        <v>986.3875833758934</v>
+        <v>642.632086186979</v>
       </c>
       <c r="V15" t="n">
-        <v>743.3078652795275</v>
+        <v>642.632086186979</v>
       </c>
       <c r="W15" t="n">
-        <v>473.9092960098188</v>
+        <v>642.632086186979</v>
       </c>
       <c r="X15" t="n">
-        <v>254.4013016265152</v>
+        <v>423.1240918036754</v>
       </c>
       <c r="Y15" t="n">
-        <v>28.7606085618428</v>
+        <v>197.483398739003</v>
       </c>
     </row>
     <row r="16">
@@ -5430,22 +5430,22 @@
         <v>152.6574864977728</v>
       </c>
       <c r="H16" t="n">
-        <v>152.6574864977728</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I16" t="n">
-        <v>134.5068419214456</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J16" t="n">
-        <v>42.03240268465072</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K16" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="L16" t="n">
-        <v>49.84539165561337</v>
+        <v>49.84539165561338</v>
       </c>
       <c r="M16" t="n">
-        <v>87.85525627063558</v>
+        <v>87.85525627063561</v>
       </c>
       <c r="N16" t="n">
         <v>132.9774675209003</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.94791751604561</v>
+        <v>820.275705145139</v>
       </c>
       <c r="C17" t="n">
-        <v>21.94791751604561</v>
+        <v>543.1555344879973</v>
       </c>
       <c r="D17" t="n">
-        <v>21.94791751604561</v>
+        <v>266.0353638308557</v>
       </c>
       <c r="E17" t="n">
-        <v>21.94791751604561</v>
+        <v>266.0353638308557</v>
       </c>
       <c r="F17" t="n">
         <v>21.94791751604561</v>
@@ -5515,22 +5515,22 @@
         <v>21.94791751604561</v>
       </c>
       <c r="J17" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604555</v>
       </c>
       <c r="K17" t="n">
-        <v>129.2129831052412</v>
+        <v>129.2129831052409</v>
       </c>
       <c r="L17" t="n">
-        <v>317.2678444246601</v>
+        <v>317.2678444246599</v>
       </c>
       <c r="M17" t="n">
-        <v>555.3910716196101</v>
+        <v>555.39107161961</v>
       </c>
       <c r="N17" t="n">
-        <v>790.5249455637494</v>
+        <v>790.5249455637493</v>
       </c>
       <c r="O17" t="n">
-        <v>975.6458363697329</v>
+        <v>975.6458363697328</v>
       </c>
       <c r="P17" t="n">
         <v>1089.494661134058</v>
@@ -5539,28 +5539,28 @@
         <v>1097.395875802281</v>
       </c>
       <c r="R17" t="n">
-        <v>957.9469921723975</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="S17" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="T17" t="n">
-        <v>748.954945015613</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="U17" t="n">
-        <v>496.3507339600703</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="V17" t="n">
-        <v>219.2305633029287</v>
+        <v>820.275705145139</v>
       </c>
       <c r="W17" t="n">
-        <v>21.94791751604561</v>
+        <v>820.275705145139</v>
       </c>
       <c r="X17" t="n">
-        <v>21.94791751604561</v>
+        <v>820.275705145139</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.94791751604561</v>
+        <v>820.275705145139</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>473.7113354273695</v>
+        <v>534.6815475703961</v>
       </c>
       <c r="C18" t="n">
-        <v>284.2990611603333</v>
+        <v>345.2692733033598</v>
       </c>
       <c r="D18" t="n">
-        <v>195.5111213946311</v>
+        <v>345.2692733033598</v>
       </c>
       <c r="E18" t="n">
-        <v>21.94791751604561</v>
+        <v>171.7060694247743</v>
       </c>
       <c r="F18" t="n">
-        <v>21.94791751604561</v>
+        <v>171.7060694247743</v>
       </c>
       <c r="G18" t="n">
         <v>21.94791751604561</v>
@@ -5597,22 +5597,22 @@
         <v>21.94791751604561</v>
       </c>
       <c r="K18" t="n">
-        <v>21.94791751604561</v>
+        <v>137.2905245750914</v>
       </c>
       <c r="L18" t="n">
-        <v>243.3268292033436</v>
+        <v>137.2905245750914</v>
       </c>
       <c r="M18" t="n">
-        <v>514.932308464408</v>
+        <v>408.8960038361558</v>
       </c>
       <c r="N18" t="n">
-        <v>786.5377877254725</v>
+        <v>622.1845535404489</v>
       </c>
       <c r="O18" t="n">
-        <v>1032.251109090673</v>
+        <v>867.8978749056491</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.395875802281</v>
+        <v>1043.027976024176</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.395875802281</v>
@@ -5624,22 +5624,22 @@
         <v>1097.395875802281</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.395875802281</v>
+        <v>882.2242328023244</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.395875802281</v>
+        <v>777.761265666762</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.395875802281</v>
+        <v>534.6815475703961</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.395875802281</v>
+        <v>534.6815475703961</v>
       </c>
       <c r="X18" t="n">
-        <v>877.887881418977</v>
+        <v>534.6815475703961</v>
       </c>
       <c r="Y18" t="n">
-        <v>652.2471883543046</v>
+        <v>534.6815475703961</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="C19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="D19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="E19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="F19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="G19" t="n">
         <v>21.94791751604561</v>
@@ -5679,10 +5679,10 @@
         <v>21.94791751604561</v>
       </c>
       <c r="L19" t="n">
-        <v>49.84539165561337</v>
+        <v>49.84539165561338</v>
       </c>
       <c r="M19" t="n">
-        <v>87.85525627063558</v>
+        <v>87.85525627063561</v>
       </c>
       <c r="N19" t="n">
         <v>132.9774675209003</v>
@@ -5706,19 +5706,19 @@
         <v>152.6574864977728</v>
       </c>
       <c r="U19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="V19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="W19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="X19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.5513234324547</v>
+        <v>576.188258830329</v>
       </c>
       <c r="C20" t="n">
-        <v>290.5513234324547</v>
+        <v>576.188258830329</v>
       </c>
       <c r="D20" t="n">
-        <v>290.5513234324547</v>
+        <v>576.188258830329</v>
       </c>
       <c r="E20" t="n">
-        <v>21.94791751604561</v>
+        <v>576.188258830329</v>
       </c>
       <c r="F20" t="n">
-        <v>21.94791751604561</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="G20" t="n">
-        <v>21.94791751604561</v>
+        <v>299.0680881731873</v>
       </c>
       <c r="H20" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I20" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J20" t="n">
-        <v>21.94791751604544</v>
+        <v>21.94791751604589</v>
       </c>
       <c r="K20" t="n">
-        <v>129.2129831052406</v>
+        <v>129.2129831052414</v>
       </c>
       <c r="L20" t="n">
-        <v>317.2678444246596</v>
+        <v>317.2678444246604</v>
       </c>
       <c r="M20" t="n">
-        <v>555.3910716196096</v>
+        <v>555.3910716196106</v>
       </c>
       <c r="N20" t="n">
-        <v>790.524945563749</v>
+        <v>790.52494556375</v>
       </c>
       <c r="O20" t="n">
-        <v>975.6458363697326</v>
+        <v>975.6458363697335</v>
       </c>
       <c r="P20" t="n">
-        <v>1089.494661134057</v>
+        <v>1089.494661134058</v>
       </c>
       <c r="Q20" t="n">
         <v>1097.395875802281</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.395875802281</v>
+        <v>957.9469921723979</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.395875802281</v>
+        <v>957.9469921723979</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.395875802281</v>
+        <v>957.9469921723979</v>
       </c>
       <c r="U20" t="n">
-        <v>844.791664746738</v>
+        <v>957.9469921723979</v>
       </c>
       <c r="V20" t="n">
-        <v>567.6714940895963</v>
+        <v>680.8268215152561</v>
       </c>
       <c r="W20" t="n">
-        <v>290.5513234324547</v>
+        <v>576.188258830329</v>
       </c>
       <c r="X20" t="n">
-        <v>290.5513234324547</v>
+        <v>576.188258830329</v>
       </c>
       <c r="Y20" t="n">
-        <v>290.5513234324547</v>
+        <v>576.188258830329</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.94791751604561</v>
+        <v>403.0862804608997</v>
       </c>
       <c r="C21" t="n">
-        <v>21.94791751604561</v>
+        <v>403.0862804608997</v>
       </c>
       <c r="D21" t="n">
-        <v>21.94791751604561</v>
+        <v>403.0862804608997</v>
       </c>
       <c r="E21" t="n">
-        <v>21.94791751604561</v>
+        <v>403.0862804608997</v>
       </c>
       <c r="F21" t="n">
-        <v>21.94791751604561</v>
+        <v>242.6585641781438</v>
       </c>
       <c r="G21" t="n">
-        <v>21.94791751604561</v>
+        <v>242.6585641781438</v>
       </c>
       <c r="H21" t="n">
-        <v>21.94791751604561</v>
+        <v>120.374953729719</v>
       </c>
       <c r="I21" t="n">
-        <v>21.94791751604561</v>
+        <v>28.7606085618428</v>
       </c>
       <c r="J21" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K21" t="n">
-        <v>21.94791751604561</v>
+        <v>137.2905245750914</v>
       </c>
       <c r="L21" t="n">
-        <v>243.3268292033436</v>
+        <v>358.6694362623894</v>
       </c>
       <c r="M21" t="n">
-        <v>514.932308464408</v>
+        <v>580.0770751760163</v>
       </c>
       <c r="N21" t="n">
-        <v>622.1845535404489</v>
+        <v>851.6825544370809</v>
       </c>
       <c r="O21" t="n">
-        <v>867.8978749056491</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="P21" t="n">
-        <v>1043.027976024176</v>
+        <v>1097.395875802281</v>
       </c>
       <c r="Q21" t="n">
         <v>1097.395875802281</v>
@@ -5858,25 +5858,25 @@
         <v>1097.395875802281</v>
       </c>
       <c r="S21" t="n">
-        <v>1097.395875802281</v>
+        <v>912.9513601587961</v>
       </c>
       <c r="T21" t="n">
-        <v>999.6590445621382</v>
+        <v>912.9513601587961</v>
       </c>
       <c r="U21" t="n">
-        <v>760.0668979467926</v>
+        <v>912.9513601587961</v>
       </c>
       <c r="V21" t="n">
-        <v>516.9871798504266</v>
+        <v>898.1255427952807</v>
       </c>
       <c r="W21" t="n">
-        <v>247.588610580718</v>
+        <v>628.726973525572</v>
       </c>
       <c r="X21" t="n">
-        <v>247.588610580718</v>
+        <v>628.726973525572</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.94791751604561</v>
+        <v>403.0862804608997</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="C22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="D22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="E22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="F22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="G22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="H22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="I22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="J22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="K22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="L22" t="n">
-        <v>49.84539165561337</v>
+        <v>49.8453916556134</v>
       </c>
       <c r="M22" t="n">
-        <v>87.85525627063558</v>
+        <v>87.85525627063561</v>
       </c>
       <c r="N22" t="n">
         <v>132.9774675209003</v>
@@ -5940,22 +5940,22 @@
         <v>152.6574864977728</v>
       </c>
       <c r="T22" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="U22" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="V22" t="n">
-        <v>21.94791751604561</v>
+        <v>152.6574864977728</v>
       </c>
       <c r="W22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="X22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.94791751604561</v>
+        <v>21.94791751604562</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>825.5709492681086</v>
+        <v>1512.371775948938</v>
       </c>
       <c r="C23" t="n">
-        <v>471.8280226204532</v>
+        <v>1512.371775948938</v>
       </c>
       <c r="D23" t="n">
-        <v>130.6440229818398</v>
+        <v>1512.371775948938</v>
       </c>
       <c r="E23" t="n">
-        <v>43.39223831134681</v>
+        <v>1375.545804014785</v>
       </c>
       <c r="F23" t="n">
-        <v>43.39223831134681</v>
+        <v>968.2738346814378</v>
       </c>
       <c r="G23" t="n">
-        <v>43.39223831134681</v>
+        <v>547.0557704781427</v>
       </c>
       <c r="H23" t="n">
-        <v>43.39223831134681</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="I23" t="n">
         <v>43.39223831134681</v>
       </c>
       <c r="J23" t="n">
-        <v>121.336575391511</v>
+        <v>121.3365753915104</v>
       </c>
       <c r="K23" t="n">
-        <v>345.419997278865</v>
+        <v>345.4199972788643</v>
       </c>
       <c r="L23" t="n">
-        <v>678.3983593718199</v>
+        <v>678.3983593718192</v>
       </c>
       <c r="M23" t="n">
-        <v>1077.776904946449</v>
+        <v>1077.776904946448</v>
       </c>
       <c r="N23" t="n">
-        <v>1476.775376908895</v>
+        <v>1476.775376908894</v>
       </c>
       <c r="O23" t="n">
         <v>1816.62896097063</v>
@@ -6013,28 +6013,28 @@
         <v>2169.61191556734</v>
       </c>
       <c r="R23" t="n">
-        <v>2169.61191556734</v>
+        <v>2089.022020342566</v>
       </c>
       <c r="S23" t="n">
-        <v>2169.61191556734</v>
+        <v>2089.022020342566</v>
       </c>
       <c r="T23" t="n">
-        <v>1953.000769562037</v>
+        <v>2089.022020342566</v>
       </c>
       <c r="U23" t="n">
-        <v>1953.000769562037</v>
+        <v>1836.492769493536</v>
       </c>
       <c r="V23" t="n">
-        <v>1953.000769562037</v>
+        <v>1512.371775948938</v>
       </c>
       <c r="W23" t="n">
-        <v>1953.000769562037</v>
+        <v>1512.371775948938</v>
       </c>
       <c r="X23" t="n">
-        <v>1589.583886436071</v>
+        <v>1512.371775948938</v>
       </c>
       <c r="Y23" t="n">
-        <v>1203.436848639657</v>
+        <v>1512.371775948938</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>734.2840330741167</v>
+        <v>994.2740762144176</v>
       </c>
       <c r="C24" t="n">
-        <v>544.8717588070804</v>
+        <v>804.8618019473813</v>
       </c>
       <c r="D24" t="n">
-        <v>544.8717588070804</v>
+        <v>644.081685708413</v>
       </c>
       <c r="E24" t="n">
-        <v>544.8717588070804</v>
+        <v>470.5184818298275</v>
       </c>
       <c r="F24" t="n">
-        <v>384.4440425243244</v>
+        <v>310.0907655470716</v>
       </c>
       <c r="G24" t="n">
-        <v>235.1872311948903</v>
+        <v>160.8339542176375</v>
       </c>
       <c r="H24" t="n">
-        <v>117.7455152885996</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I24" t="n">
         <v>43.39223831134681</v>
       </c>
       <c r="J24" t="n">
-        <v>43.39223831134681</v>
+        <v>83.13823301014102</v>
       </c>
       <c r="K24" t="n">
-        <v>207.9494571282718</v>
+        <v>277.8253346803274</v>
       </c>
       <c r="L24" t="n">
-        <v>536.016833539054</v>
+        <v>605.8927110911097</v>
       </c>
       <c r="M24" t="n">
-        <v>963.6106520894227</v>
+        <v>1033.486529641478</v>
       </c>
       <c r="N24" t="n">
-        <v>1420.941496238582</v>
+        <v>1490.817373790638</v>
       </c>
       <c r="O24" t="n">
-        <v>1783.562789442079</v>
+        <v>1853.438666994135</v>
       </c>
       <c r="P24" t="n">
-        <v>2052.521844749699</v>
+        <v>2122.397722301755</v>
       </c>
       <c r="Q24" t="n">
         <v>2169.61191556734</v>
@@ -6095,25 +6095,25 @@
         <v>2095.014535606475</v>
       </c>
       <c r="S24" t="n">
-        <v>1919.882201337167</v>
+        <v>2095.014535606475</v>
       </c>
       <c r="T24" t="n">
-        <v>1706.731312689718</v>
+        <v>1881.863646959026</v>
       </c>
       <c r="U24" t="n">
-        <v>1467.172149007221</v>
+        <v>1642.304483276529</v>
       </c>
       <c r="V24" t="n">
-        <v>1224.092430910855</v>
+        <v>1642.304483276529</v>
       </c>
       <c r="W24" t="n">
-        <v>954.6938616411463</v>
+        <v>1392.317923524656</v>
       </c>
       <c r="X24" t="n">
-        <v>735.1858672578427</v>
+        <v>1172.809929141353</v>
       </c>
       <c r="Y24" t="n">
-        <v>734.2840330741167</v>
+        <v>1172.809929141353</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>190.0413799787314</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="C25" t="n">
-        <v>190.0413799787314</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="D25" t="n">
-        <v>43.39223831134681</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="E25" t="n">
-        <v>43.39223831134681</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="F25" t="n">
-        <v>43.39223831134681</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="G25" t="n">
-        <v>43.39223831134681</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="H25" t="n">
         <v>43.39223831134681</v>
@@ -6150,10 +6150,10 @@
         <v>43.39223831134681</v>
       </c>
       <c r="K25" t="n">
-        <v>71.56771987682809</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L25" t="n">
-        <v>160.7098817102414</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M25" t="n">
         <v>263.2936823595659</v>
@@ -6162,37 +6162,37 @@
         <v>371.4544057750809</v>
       </c>
       <c r="O25" t="n">
-        <v>449.3606938154187</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P25" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q25" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R25" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="S25" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="T25" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="U25" t="n">
-        <v>198.3511364754183</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="V25" t="n">
-        <v>198.3511364754183</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="W25" t="n">
-        <v>190.0413799787314</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="X25" t="n">
-        <v>190.0413799787314</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.0413799787314</v>
+        <v>196.6349939137605</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.9644249543791</v>
+        <v>1459.343884226328</v>
       </c>
       <c r="C26" t="n">
-        <v>374.9644249543791</v>
+        <v>1105.600957578673</v>
       </c>
       <c r="D26" t="n">
-        <v>374.9644249543791</v>
+        <v>997.9867774731405</v>
       </c>
       <c r="E26" t="n">
-        <v>374.9644249543791</v>
+        <v>622.7555531684575</v>
       </c>
       <c r="F26" t="n">
-        <v>374.9644249543791</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="G26" t="n">
-        <v>374.9644249543791</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="H26" t="n">
-        <v>43.39223831134681</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="I26" t="n">
         <v>43.39223831134681</v>
@@ -6250,28 +6250,28 @@
         <v>2169.61191556734</v>
       </c>
       <c r="R26" t="n">
-        <v>2089.022020342566</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="S26" t="n">
-        <v>1901.381919509884</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="T26" t="n">
-        <v>1684.77077350458</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="U26" t="n">
-        <v>1432.241522655551</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="V26" t="n">
-        <v>1108.120529110953</v>
+        <v>1845.490922022742</v>
       </c>
       <c r="W26" t="n">
-        <v>766.8109696909867</v>
+        <v>1845.490922022742</v>
       </c>
       <c r="X26" t="n">
-        <v>752.8303243259279</v>
+        <v>1845.490922022742</v>
       </c>
       <c r="Y26" t="n">
-        <v>752.8303243259279</v>
+        <v>1459.343884226328</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1033.449087826355</v>
+        <v>618.7575898745495</v>
       </c>
       <c r="C27" t="n">
-        <v>844.0368135593183</v>
+        <v>429.3453156075132</v>
       </c>
       <c r="D27" t="n">
-        <v>683.25669732035</v>
+        <v>408.7504350734758</v>
       </c>
       <c r="E27" t="n">
-        <v>509.6934934417644</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="F27" t="n">
-        <v>349.2657771590085</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="G27" t="n">
-        <v>200.0089658295744</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="H27" t="n">
         <v>117.7455152885996</v>
@@ -6332,25 +6332,25 @@
         <v>2169.61191556734</v>
       </c>
       <c r="S27" t="n">
-        <v>2169.61191556734</v>
+        <v>1994.479581298033</v>
       </c>
       <c r="T27" t="n">
-        <v>2169.61191556734</v>
+        <v>1994.479581298033</v>
       </c>
       <c r="U27" t="n">
-        <v>2169.61191556734</v>
+        <v>1754.920417615535</v>
       </c>
       <c r="V27" t="n">
-        <v>1926.532197470975</v>
+        <v>1511.840699519169</v>
       </c>
       <c r="W27" t="n">
-        <v>1657.133628201266</v>
+        <v>1242.442130249461</v>
       </c>
       <c r="X27" t="n">
-        <v>1437.625633817962</v>
+        <v>1022.934135866157</v>
       </c>
       <c r="Y27" t="n">
-        <v>1211.98494075329</v>
+        <v>797.2934428014846</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="C28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="D28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="E28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="F28" t="n">
-        <v>1723.126021490851</v>
+        <v>56.30480985472343</v>
       </c>
       <c r="G28" t="n">
-        <v>1723.126021490851</v>
+        <v>56.30480985472343</v>
       </c>
       <c r="H28" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I28" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="J28" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="K28" t="n">
-        <v>1751.301503056332</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L28" t="n">
-        <v>1840.443664889745</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M28" t="n">
-        <v>1943.02746553907</v>
+        <v>263.2936823595659</v>
       </c>
       <c r="N28" t="n">
-        <v>2051.188188954585</v>
+        <v>371.4544057750809</v>
       </c>
       <c r="O28" t="n">
-        <v>2129.094476994923</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P28" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q28" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R28" t="n">
-        <v>2001.456096476374</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="S28" t="n">
-        <v>1778.108081338096</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="T28" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="W28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="X28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
       <c r="Y28" t="n">
-        <v>1723.126021490851</v>
+        <v>196.6349939137605</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>513.2324350207633</v>
+        <v>968.2738346814378</v>
       </c>
       <c r="C29" t="n">
-        <v>513.2324350207633</v>
+        <v>968.2738346814378</v>
       </c>
       <c r="D29" t="n">
-        <v>172.0484353821499</v>
+        <v>968.2738346814378</v>
       </c>
       <c r="E29" t="n">
-        <v>172.0484353821499</v>
+        <v>968.2738346814378</v>
       </c>
       <c r="F29" t="n">
-        <v>172.0484353821499</v>
+        <v>968.2738346814378</v>
       </c>
       <c r="G29" t="n">
-        <v>172.0484353821499</v>
+        <v>547.0557704781427</v>
       </c>
       <c r="H29" t="n">
-        <v>172.0484353821499</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="I29" t="n">
         <v>43.39223831134681</v>
       </c>
       <c r="J29" t="n">
-        <v>121.3365753915103</v>
+        <v>121.3365753915102</v>
       </c>
       <c r="K29" t="n">
         <v>345.4199972788642</v>
       </c>
       <c r="L29" t="n">
-        <v>678.398359371819</v>
+        <v>678.3983593718192</v>
       </c>
       <c r="M29" t="n">
         <v>1077.776904946448</v>
@@ -6505,10 +6505,10 @@
         <v>1640.662255314692</v>
       </c>
       <c r="X29" t="n">
-        <v>1277.245372188726</v>
+        <v>1346.139734052987</v>
       </c>
       <c r="Y29" t="n">
-        <v>891.0983343923122</v>
+        <v>1346.139734052987</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>919.3705418622363</v>
+        <v>585.3796217008949</v>
       </c>
       <c r="C30" t="n">
-        <v>729.9582675952</v>
+        <v>395.9673474338585</v>
       </c>
       <c r="D30" t="n">
-        <v>569.1781513562318</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="E30" t="n">
-        <v>395.6149474776462</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="F30" t="n">
         <v>235.1872311948903</v>
@@ -6542,25 +6542,25 @@
         <v>43.39223831134681</v>
       </c>
       <c r="J30" t="n">
-        <v>83.13823301014099</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="K30" t="n">
-        <v>277.8253346803274</v>
+        <v>238.0793399815332</v>
       </c>
       <c r="L30" t="n">
-        <v>605.8927110911096</v>
+        <v>536.0168335390536</v>
       </c>
       <c r="M30" t="n">
-        <v>1033.486529641478</v>
+        <v>963.6106520894223</v>
       </c>
       <c r="N30" t="n">
-        <v>1490.817373790638</v>
+        <v>1420.941496238582</v>
       </c>
       <c r="O30" t="n">
-        <v>1853.438666994134</v>
+        <v>1783.562789442079</v>
       </c>
       <c r="P30" t="n">
-        <v>2122.397722301754</v>
+        <v>2052.521844749699</v>
       </c>
       <c r="Q30" t="n">
         <v>2169.61191556734</v>
@@ -6572,22 +6572,22 @@
         <v>1919.882201337167</v>
       </c>
       <c r="T30" t="n">
-        <v>1706.731312689718</v>
+        <v>1782.565760197443</v>
       </c>
       <c r="U30" t="n">
-        <v>1467.172149007221</v>
+        <v>1543.006596514946</v>
       </c>
       <c r="V30" t="n">
-        <v>1467.172149007221</v>
+        <v>1299.92687841858</v>
       </c>
       <c r="W30" t="n">
-        <v>1197.773579737512</v>
+        <v>1030.528309148871</v>
       </c>
       <c r="X30" t="n">
-        <v>978.2655853542085</v>
+        <v>811.0203147655673</v>
       </c>
       <c r="Y30" t="n">
-        <v>978.2655853542085</v>
+        <v>585.3796217008949</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="C31" t="n">
-        <v>2087.554523614018</v>
+        <v>333.1485933244132</v>
       </c>
       <c r="D31" t="n">
-        <v>2087.554523614018</v>
+        <v>186.4994516570286</v>
       </c>
       <c r="E31" t="n">
-        <v>2087.554523614018</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="F31" t="n">
-        <v>2087.554523614018</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="G31" t="n">
-        <v>2087.554523614018</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="H31" t="n">
-        <v>1927.436400214633</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I31" t="n">
-        <v>1785.884748718126</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="J31" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="K31" t="n">
-        <v>1751.301503056332</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L31" t="n">
-        <v>1840.443664889746</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M31" t="n">
-        <v>1943.02746553907</v>
+        <v>263.2936823595659</v>
       </c>
       <c r="N31" t="n">
-        <v>2051.188188954585</v>
+        <v>371.4544057750809</v>
       </c>
       <c r="O31" t="n">
-        <v>2129.094476994923</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P31" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q31" t="n">
-        <v>2110.628172450306</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="S31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="T31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="U31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="V31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="W31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="X31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Y31" t="n">
-        <v>2087.554523614018</v>
+        <v>489.8781323878366</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>977.8856476770191</v>
+        <v>1072.479832325574</v>
       </c>
       <c r="C32" t="n">
-        <v>977.8856476770191</v>
+        <v>1072.479832325574</v>
       </c>
       <c r="D32" t="n">
-        <v>636.7016480384057</v>
+        <v>1072.479832325574</v>
       </c>
       <c r="E32" t="n">
-        <v>636.7016480384057</v>
+        <v>1072.479832325574</v>
       </c>
       <c r="F32" t="n">
-        <v>636.7016480384057</v>
+        <v>665.2078629922271</v>
       </c>
       <c r="G32" t="n">
-        <v>215.4835838351105</v>
+        <v>243.989798788932</v>
       </c>
       <c r="H32" t="n">
         <v>215.4835838351105</v>
       </c>
       <c r="I32" t="n">
-        <v>43.39223831134681</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="J32" t="n">
         <v>121.3365753915105</v>
       </c>
       <c r="K32" t="n">
-        <v>345.4199972788649</v>
+        <v>345.4199972788645</v>
       </c>
       <c r="L32" t="n">
-        <v>678.3983593718197</v>
+        <v>678.3983593718194</v>
       </c>
       <c r="M32" t="n">
         <v>1077.776904946448</v>
@@ -6718,34 +6718,34 @@
         <v>1816.62896097063</v>
       </c>
       <c r="P32" t="n">
-        <v>2062.53855956136</v>
+        <v>2062.538559561361</v>
       </c>
       <c r="Q32" t="n">
-        <v>2169.61191556734</v>
+        <v>2169.611915567341</v>
       </c>
       <c r="R32" t="n">
-        <v>2169.61191556734</v>
+        <v>2089.022020342566</v>
       </c>
       <c r="S32" t="n">
-        <v>1981.971814734658</v>
+        <v>2089.022020342566</v>
       </c>
       <c r="T32" t="n">
-        <v>1765.360668729355</v>
+        <v>2089.022020342566</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.061106468534</v>
+        <v>1836.492769493537</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.061106468534</v>
+        <v>1836.492769493537</v>
       </c>
       <c r="W32" t="n">
-        <v>1355.751547048568</v>
+        <v>1836.492769493537</v>
       </c>
       <c r="X32" t="n">
-        <v>1355.751547048568</v>
+        <v>1836.492769493537</v>
       </c>
       <c r="Y32" t="n">
-        <v>1355.751547048568</v>
+        <v>1450.345731697123</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1068.62735319167</v>
+        <v>951.1856372853797</v>
       </c>
       <c r="C33" t="n">
-        <v>879.2150789246342</v>
+        <v>761.7733630183434</v>
       </c>
       <c r="D33" t="n">
-        <v>718.4349626856659</v>
+        <v>600.9932467793751</v>
       </c>
       <c r="E33" t="n">
-        <v>544.8717588070804</v>
+        <v>427.4300429007896</v>
       </c>
       <c r="F33" t="n">
-        <v>384.4440425243244</v>
+        <v>267.0023266180337</v>
       </c>
       <c r="G33" t="n">
-        <v>235.1872311948903</v>
+        <v>117.7455152885996</v>
       </c>
       <c r="H33" t="n">
         <v>117.7455152885996</v>
       </c>
       <c r="I33" t="n">
-        <v>43.39223831134681</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="J33" t="n">
-        <v>83.13823301014099</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="K33" t="n">
-        <v>277.8253346803274</v>
+        <v>238.0793399815333</v>
       </c>
       <c r="L33" t="n">
-        <v>605.8927110911096</v>
+        <v>566.1467163923155</v>
       </c>
       <c r="M33" t="n">
-        <v>1033.486529641478</v>
+        <v>993.7405349426842</v>
       </c>
       <c r="N33" t="n">
-        <v>1490.817373790638</v>
+        <v>1451.071379091844</v>
       </c>
       <c r="O33" t="n">
-        <v>1853.438666994134</v>
+        <v>1813.692672295341</v>
       </c>
       <c r="P33" t="n">
-        <v>2122.397722301754</v>
+        <v>2082.65172760296</v>
       </c>
       <c r="Q33" t="n">
-        <v>2169.61191556734</v>
+        <v>2169.611915567341</v>
       </c>
       <c r="R33" t="n">
         <v>2095.014535606475</v>
       </c>
       <c r="S33" t="n">
-        <v>1919.882201337167</v>
+        <v>2095.014535606475</v>
       </c>
       <c r="T33" t="n">
-        <v>1919.882201337167</v>
+        <v>2095.014535606475</v>
       </c>
       <c r="U33" t="n">
-        <v>1919.882201337167</v>
+        <v>2087.348465026365</v>
       </c>
       <c r="V33" t="n">
-        <v>1676.802483240801</v>
+        <v>1844.268746929999</v>
       </c>
       <c r="W33" t="n">
-        <v>1407.403913971093</v>
+        <v>1574.870177660291</v>
       </c>
       <c r="X33" t="n">
-        <v>1407.403913971093</v>
+        <v>1355.362183276987</v>
       </c>
       <c r="Y33" t="n">
-        <v>1181.76322090642</v>
+        <v>1129.721490212315</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="C34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="D34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="E34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="F34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="G34" t="n">
-        <v>345.0620132072386</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="H34" t="n">
-        <v>184.9438898078533</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="I34" t="n">
-        <v>43.39223831134681</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="J34" t="n">
-        <v>43.39223831134681</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="K34" t="n">
-        <v>71.56771987682809</v>
+        <v>71.56771987682812</v>
       </c>
       <c r="L34" t="n">
-        <v>160.7098817102414</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M34" t="n">
         <v>263.2936823595659</v>
@@ -6873,37 +6873,37 @@
         <v>371.4544057750809</v>
       </c>
       <c r="O34" t="n">
-        <v>449.3606938154187</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P34" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q34" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R34" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="S34" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="T34" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="U34" t="n">
-        <v>489.8781323878365</v>
+        <v>198.3511364754184</v>
       </c>
       <c r="V34" t="n">
-        <v>489.8781323878365</v>
+        <v>198.3511364754184</v>
       </c>
       <c r="W34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="X34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
       <c r="Y34" t="n">
-        <v>489.8781323878365</v>
+        <v>43.39223831134682</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1193.58445346698</v>
+        <v>1113.550388902299</v>
       </c>
       <c r="C35" t="n">
-        <v>839.8415268193249</v>
+        <v>759.8074622546433</v>
       </c>
       <c r="D35" t="n">
-        <v>839.8415268193249</v>
+        <v>418.6234626160298</v>
       </c>
       <c r="E35" t="n">
-        <v>464.6103025146419</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="F35" t="n">
-        <v>464.6103025146419</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="G35" t="n">
         <v>43.39223831134681</v>
@@ -6937,19 +6937,19 @@
         <v>43.39223831134681</v>
       </c>
       <c r="J35" t="n">
-        <v>121.3365753915105</v>
+        <v>121.3365753915104</v>
       </c>
       <c r="K35" t="n">
-        <v>345.4199972788649</v>
+        <v>345.4199972788643</v>
       </c>
       <c r="L35" t="n">
-        <v>678.3983593718197</v>
+        <v>678.3983593718194</v>
       </c>
       <c r="M35" t="n">
-        <v>1077.776904946449</v>
+        <v>1077.776904946448</v>
       </c>
       <c r="N35" t="n">
-        <v>1476.775376908895</v>
+        <v>1476.775376908894</v>
       </c>
       <c r="O35" t="n">
         <v>1816.62896097063</v>
@@ -6964,25 +6964,25 @@
         <v>2169.61191556734</v>
       </c>
       <c r="S35" t="n">
-        <v>1981.971814734658</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="T35" t="n">
-        <v>1765.360668729355</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="U35" t="n">
-        <v>1557.001336592946</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.001336592946</v>
+        <v>1845.490922022742</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.001336592946</v>
+        <v>1504.181362602776</v>
       </c>
       <c r="X35" t="n">
-        <v>1193.58445346698</v>
+        <v>1499.697426698713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1193.58445346698</v>
+        <v>1113.550388902299</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>735.1858672578427</v>
+        <v>758.9428255794804</v>
       </c>
       <c r="C36" t="n">
-        <v>735.1858672578427</v>
+        <v>569.5305513124441</v>
       </c>
       <c r="D36" t="n">
-        <v>574.4057510188744</v>
+        <v>408.7504350734758</v>
       </c>
       <c r="E36" t="n">
-        <v>544.8717588070804</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="F36" t="n">
-        <v>384.4440425243244</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="G36" t="n">
         <v>235.1872311948903</v>
@@ -7016,25 +7016,25 @@
         <v>43.39223831134681</v>
       </c>
       <c r="J36" t="n">
-        <v>43.39223831134681</v>
+        <v>83.13823301014102</v>
       </c>
       <c r="K36" t="n">
-        <v>238.0793399815332</v>
+        <v>277.8253346803274</v>
       </c>
       <c r="L36" t="n">
-        <v>566.1467163923154</v>
+        <v>605.8927110911097</v>
       </c>
       <c r="M36" t="n">
-        <v>993.7405349426841</v>
+        <v>1033.486529641478</v>
       </c>
       <c r="N36" t="n">
-        <v>1451.071379091844</v>
+        <v>1490.817373790638</v>
       </c>
       <c r="O36" t="n">
-        <v>1813.69267229534</v>
+        <v>1853.438666994135</v>
       </c>
       <c r="P36" t="n">
-        <v>2082.65172760296</v>
+        <v>2122.397722301755</v>
       </c>
       <c r="Q36" t="n">
         <v>2169.61191556734</v>
@@ -7046,22 +7046,22 @@
         <v>1919.882201337167</v>
       </c>
       <c r="T36" t="n">
-        <v>1706.731312689718</v>
+        <v>1919.882201337167</v>
       </c>
       <c r="U36" t="n">
-        <v>1467.172149007221</v>
+        <v>1680.32303765467</v>
       </c>
       <c r="V36" t="n">
-        <v>1224.092430910855</v>
+        <v>1437.243319558304</v>
       </c>
       <c r="W36" t="n">
-        <v>954.6938616411463</v>
+        <v>1382.627365954392</v>
       </c>
       <c r="X36" t="n">
-        <v>735.1858672578427</v>
+        <v>1163.119371571088</v>
       </c>
       <c r="Y36" t="n">
-        <v>735.1858672578427</v>
+        <v>937.4786785064155</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1723.126021490851</v>
+        <v>473.4787773834503</v>
       </c>
       <c r="C37" t="n">
-        <v>1723.126021490851</v>
+        <v>473.4787773834503</v>
       </c>
       <c r="D37" t="n">
-        <v>1723.126021490851</v>
+        <v>326.8296357160657</v>
       </c>
       <c r="E37" t="n">
-        <v>1723.126021490851</v>
+        <v>183.7224223703838</v>
       </c>
       <c r="F37" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="G37" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="H37" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I37" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="J37" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="K37" t="n">
-        <v>1751.301503056332</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L37" t="n">
-        <v>1840.443664889746</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M37" t="n">
-        <v>1943.02746553907</v>
+        <v>263.2936823595659</v>
       </c>
       <c r="N37" t="n">
-        <v>2051.188188954585</v>
+        <v>371.4544057750809</v>
       </c>
       <c r="O37" t="n">
-        <v>2129.094476994923</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P37" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q37" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R37" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="S37" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="T37" t="n">
-        <v>1947.137374569988</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="U37" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="W37" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="X37" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Y37" t="n">
-        <v>1723.126021490851</v>
+        <v>489.8781323878366</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>871.8822718479889</v>
+        <v>1322.605619341459</v>
       </c>
       <c r="C38" t="n">
-        <v>871.8822718479889</v>
+        <v>1322.605619341459</v>
       </c>
       <c r="D38" t="n">
-        <v>871.8822718479889</v>
+        <v>1322.605619341459</v>
       </c>
       <c r="E38" t="n">
-        <v>871.8822718479889</v>
+        <v>1043.973617371752</v>
       </c>
       <c r="F38" t="n">
-        <v>464.6103025146419</v>
+        <v>636.7016480384056</v>
       </c>
       <c r="G38" t="n">
-        <v>43.39223831134681</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="H38" t="n">
-        <v>43.39223831134681</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="I38" t="n">
         <v>43.39223831134681</v>
       </c>
       <c r="J38" t="n">
-        <v>121.3365753915105</v>
+        <v>121.33657539151</v>
       </c>
       <c r="K38" t="n">
-        <v>345.4199972788649</v>
+        <v>345.419997278864</v>
       </c>
       <c r="L38" t="n">
-        <v>678.3983593718197</v>
+        <v>678.398359371819</v>
       </c>
       <c r="M38" t="n">
         <v>1077.776904946448</v>
@@ -7198,28 +7198,28 @@
         <v>2169.61191556734</v>
       </c>
       <c r="R38" t="n">
-        <v>2089.022020342566</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="S38" t="n">
-        <v>1901.381919509884</v>
+        <v>2169.61191556734</v>
       </c>
       <c r="T38" t="n">
-        <v>1684.77077350458</v>
+        <v>1953.000769562037</v>
       </c>
       <c r="U38" t="n">
-        <v>1635.895209015952</v>
+        <v>1700.471518713008</v>
       </c>
       <c r="V38" t="n">
-        <v>1635.895209015952</v>
+        <v>1700.471518713008</v>
       </c>
       <c r="W38" t="n">
-        <v>1635.895209015952</v>
+        <v>1700.471518713008</v>
       </c>
       <c r="X38" t="n">
-        <v>1635.895209015952</v>
+        <v>1700.471518713008</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.748171219538</v>
+        <v>1700.471518713008</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>790.7579210026238</v>
+        <v>584.1425541540357</v>
       </c>
       <c r="C39" t="n">
-        <v>601.3456467355875</v>
+        <v>394.7302798869994</v>
       </c>
       <c r="D39" t="n">
-        <v>440.5655304966192</v>
+        <v>233.9501636480311</v>
       </c>
       <c r="E39" t="n">
-        <v>267.0023266180337</v>
+        <v>60.38695976944558</v>
       </c>
       <c r="F39" t="n">
-        <v>267.0023266180337</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7455152885996</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="H39" t="n">
-        <v>117.7455152885996</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I39" t="n">
         <v>43.39223831134681</v>
       </c>
       <c r="J39" t="n">
-        <v>83.13823301014099</v>
+        <v>83.13823301014102</v>
       </c>
       <c r="K39" t="n">
-        <v>207.9494571282718</v>
+        <v>277.8253346803274</v>
       </c>
       <c r="L39" t="n">
-        <v>536.016833539054</v>
+        <v>605.8927110911097</v>
       </c>
       <c r="M39" t="n">
-        <v>963.6106520894227</v>
+        <v>1033.486529641478</v>
       </c>
       <c r="N39" t="n">
-        <v>1420.941496238582</v>
+        <v>1490.817373790638</v>
       </c>
       <c r="O39" t="n">
-        <v>1783.562789442079</v>
+        <v>1853.438666994135</v>
       </c>
       <c r="P39" t="n">
-        <v>2052.521844749699</v>
+        <v>2122.397722301755</v>
       </c>
       <c r="Q39" t="n">
         <v>2169.61191556734</v>
@@ -7283,22 +7283,22 @@
         <v>1994.479581298033</v>
       </c>
       <c r="T39" t="n">
-        <v>1994.479581298033</v>
+        <v>1781.328692650584</v>
       </c>
       <c r="U39" t="n">
-        <v>1754.920417615535</v>
+        <v>1541.769528968086</v>
       </c>
       <c r="V39" t="n">
-        <v>1511.840699519169</v>
+        <v>1298.689810871721</v>
       </c>
       <c r="W39" t="n">
-        <v>1242.442130249461</v>
+        <v>1029.291241602012</v>
       </c>
       <c r="X39" t="n">
-        <v>1022.934135866157</v>
+        <v>809.7832472187081</v>
       </c>
       <c r="Y39" t="n">
-        <v>969.2937739295589</v>
+        <v>584.1425541540357</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.39223831134681</v>
+        <v>190.0413799787314</v>
       </c>
       <c r="C40" t="n">
-        <v>43.39223831134681</v>
+        <v>190.0413799787314</v>
       </c>
       <c r="D40" t="n">
         <v>43.39223831134681</v>
@@ -7335,10 +7335,10 @@
         <v>43.39223831134681</v>
       </c>
       <c r="K40" t="n">
-        <v>71.56771987682809</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L40" t="n">
-        <v>160.7098817102414</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M40" t="n">
         <v>263.2936823595659</v>
@@ -7347,37 +7347,37 @@
         <v>371.4544057750809</v>
       </c>
       <c r="O40" t="n">
-        <v>449.3606938154187</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P40" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q40" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R40" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="S40" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="T40" t="n">
-        <v>489.8781323878365</v>
+        <v>267.4035913904841</v>
       </c>
       <c r="U40" t="n">
-        <v>489.8781323878365</v>
+        <v>190.0413799787314</v>
       </c>
       <c r="V40" t="n">
-        <v>489.8781323878365</v>
+        <v>190.0413799787314</v>
       </c>
       <c r="W40" t="n">
-        <v>196.6349939137604</v>
+        <v>190.0413799787314</v>
       </c>
       <c r="X40" t="n">
-        <v>43.39223831134681</v>
+        <v>190.0413799787314</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.39223831134681</v>
+        <v>190.0413799787314</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1078.738435224994</v>
+        <v>789.6528444243826</v>
       </c>
       <c r="C41" t="n">
-        <v>1078.738435224994</v>
+        <v>590.7148081397935</v>
       </c>
       <c r="D41" t="n">
-        <v>1078.738435224994</v>
+        <v>590.7148081397935</v>
       </c>
       <c r="E41" t="n">
-        <v>1078.738435224994</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="F41" t="n">
-        <v>968.2738346814378</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="G41" t="n">
-        <v>547.0557704781427</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="H41" t="n">
         <v>215.4835838351105</v>
@@ -7411,13 +7411,13 @@
         <v>43.39223831134681</v>
       </c>
       <c r="J41" t="n">
-        <v>121.3365753915105</v>
+        <v>121.3365753915102</v>
       </c>
       <c r="K41" t="n">
-        <v>345.4199972788647</v>
+        <v>345.4199972788642</v>
       </c>
       <c r="L41" t="n">
-        <v>678.3983593718197</v>
+        <v>678.3983593718192</v>
       </c>
       <c r="M41" t="n">
         <v>1077.776904946448</v>
@@ -7444,19 +7444,19 @@
         <v>2169.61191556734</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.61191556734</v>
+        <v>1917.082664718311</v>
       </c>
       <c r="V41" t="n">
-        <v>2169.61191556734</v>
+        <v>1917.082664718311</v>
       </c>
       <c r="W41" t="n">
-        <v>1828.302356147374</v>
+        <v>1917.082664718311</v>
       </c>
       <c r="X41" t="n">
-        <v>1464.885473021408</v>
+        <v>1553.665781592345</v>
       </c>
       <c r="Y41" t="n">
-        <v>1078.738435224994</v>
+        <v>1167.518743795931</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>874.3271123881389</v>
+        <v>331.0093212662352</v>
       </c>
       <c r="C42" t="n">
-        <v>874.3271123881389</v>
+        <v>141.597046999199</v>
       </c>
       <c r="D42" t="n">
-        <v>713.5469961491706</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="E42" t="n">
-        <v>539.983792270585</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="F42" t="n">
-        <v>379.5560759878291</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="G42" t="n">
-        <v>230.299264658395</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="H42" t="n">
-        <v>112.8575487521043</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I42" t="n">
         <v>43.39223831134681</v>
       </c>
       <c r="J42" t="n">
-        <v>83.13823301014099</v>
+        <v>83.13823301014102</v>
       </c>
       <c r="K42" t="n">
         <v>277.8253346803274</v>
       </c>
       <c r="L42" t="n">
-        <v>605.8927110911096</v>
+        <v>605.8927110911097</v>
       </c>
       <c r="M42" t="n">
         <v>1033.486529641478</v>
@@ -7505,37 +7505,37 @@
         <v>1490.817373790638</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.438666994134</v>
+        <v>1853.438666994135</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.397722301754</v>
+        <v>2122.397722301755</v>
       </c>
       <c r="Q42" t="n">
         <v>2169.61191556734</v>
       </c>
       <c r="R42" t="n">
-        <v>2169.61191556734</v>
+        <v>2095.014535606475</v>
       </c>
       <c r="S42" t="n">
-        <v>1994.479581298033</v>
+        <v>1919.882201337167</v>
       </c>
       <c r="T42" t="n">
-        <v>1781.328692650584</v>
+        <v>1706.731312689718</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.769528968086</v>
+        <v>1467.172149007221</v>
       </c>
       <c r="V42" t="n">
-        <v>1541.769528968086</v>
+        <v>1224.092430910855</v>
       </c>
       <c r="W42" t="n">
-        <v>1272.370959698378</v>
+        <v>954.6938616411463</v>
       </c>
       <c r="X42" t="n">
-        <v>1052.862965315074</v>
+        <v>735.1858672578427</v>
       </c>
       <c r="Y42" t="n">
-        <v>1052.862965315074</v>
+        <v>509.5451741931703</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="C43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="D43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="E43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="F43" t="n">
-        <v>1723.126021490851</v>
+        <v>181.3921292378334</v>
       </c>
       <c r="G43" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="H43" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="I43" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="J43" t="n">
-        <v>1723.126021490851</v>
+        <v>43.39223831134681</v>
       </c>
       <c r="K43" t="n">
-        <v>1751.301503056332</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L43" t="n">
-        <v>1840.443664889746</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M43" t="n">
-        <v>1943.02746553907</v>
+        <v>263.2936823595659</v>
       </c>
       <c r="N43" t="n">
-        <v>2051.188188954585</v>
+        <v>371.4544057750809</v>
       </c>
       <c r="O43" t="n">
-        <v>2129.094476994923</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P43" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q43" t="n">
-        <v>2169.61191556734</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="R43" t="n">
-        <v>2169.61191556734</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="S43" t="n">
-        <v>2169.61191556734</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="T43" t="n">
-        <v>2169.61191556734</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="U43" t="n">
-        <v>1970.710885313528</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="W43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="X43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
       <c r="Y43" t="n">
-        <v>1723.126021490851</v>
+        <v>321.7223132968704</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1043.973617371753</v>
+        <v>622.7555531684575</v>
       </c>
       <c r="C44" t="n">
-        <v>1043.973617371753</v>
+        <v>622.7555531684575</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.973617371753</v>
+        <v>622.7555531684575</v>
       </c>
       <c r="E44" t="n">
-        <v>1043.973617371753</v>
+        <v>622.7555531684575</v>
       </c>
       <c r="F44" t="n">
-        <v>636.7016480384057</v>
+        <v>215.4835838351105</v>
       </c>
       <c r="G44" t="n">
         <v>215.4835838351105</v>
@@ -7648,19 +7648,19 @@
         <v>43.39223831134681</v>
       </c>
       <c r="J44" t="n">
-        <v>121.3365753915103</v>
+        <v>121.3365753915098</v>
       </c>
       <c r="K44" t="n">
-        <v>345.419997278865</v>
+        <v>345.4199972788638</v>
       </c>
       <c r="L44" t="n">
-        <v>678.3983593718199</v>
+        <v>678.3983593718187</v>
       </c>
       <c r="M44" t="n">
-        <v>1077.776904946449</v>
+        <v>1077.776904946448</v>
       </c>
       <c r="N44" t="n">
-        <v>1476.775376908895</v>
+        <v>1476.775376908894</v>
       </c>
       <c r="O44" t="n">
         <v>1816.62896097063</v>
@@ -7678,22 +7678,22 @@
         <v>1901.381919509884</v>
       </c>
       <c r="T44" t="n">
-        <v>1684.77077350458</v>
+        <v>1901.381919509884</v>
       </c>
       <c r="U44" t="n">
-        <v>1432.241522655551</v>
+        <v>1648.852668660854</v>
       </c>
       <c r="V44" t="n">
-        <v>1430.120655168167</v>
+        <v>1324.731675116256</v>
       </c>
       <c r="W44" t="n">
-        <v>1430.120655168167</v>
+        <v>986.1724362944233</v>
       </c>
       <c r="X44" t="n">
-        <v>1430.120655168167</v>
+        <v>622.7555531684575</v>
       </c>
       <c r="Y44" t="n">
-        <v>1043.973617371753</v>
+        <v>622.7555531684575</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>684.6775084624783</v>
+        <v>919.3705418622363</v>
       </c>
       <c r="C45" t="n">
-        <v>495.265234195442</v>
+        <v>729.9582675952</v>
       </c>
       <c r="D45" t="n">
-        <v>495.265234195442</v>
+        <v>569.1781513562318</v>
       </c>
       <c r="E45" t="n">
-        <v>321.7020303168564</v>
+        <v>395.6149474776462</v>
       </c>
       <c r="F45" t="n">
-        <v>321.7020303168564</v>
+        <v>235.1872311948903</v>
       </c>
       <c r="G45" t="n">
         <v>235.1872311948903</v>
@@ -7733,16 +7733,16 @@
         <v>238.0793399815332</v>
       </c>
       <c r="L45" t="n">
-        <v>566.1467163923154</v>
+        <v>566.1467163923155</v>
       </c>
       <c r="M45" t="n">
-        <v>993.7405349426841</v>
+        <v>993.7405349426842</v>
       </c>
       <c r="N45" t="n">
         <v>1451.071379091844</v>
       </c>
       <c r="O45" t="n">
-        <v>1813.69267229534</v>
+        <v>1813.692672295341</v>
       </c>
       <c r="P45" t="n">
         <v>2082.65172760296</v>
@@ -7754,25 +7754,25 @@
         <v>2095.014535606475</v>
       </c>
       <c r="S45" t="n">
-        <v>2095.014535606475</v>
+        <v>1919.882201337167</v>
       </c>
       <c r="T45" t="n">
-        <v>1881.863646959026</v>
+        <v>1919.882201337167</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.304483276529</v>
+        <v>1919.882201337167</v>
       </c>
       <c r="V45" t="n">
-        <v>1399.224765180163</v>
+        <v>1812.453651506856</v>
       </c>
       <c r="W45" t="n">
-        <v>1129.826195910454</v>
+        <v>1543.055082237147</v>
       </c>
       <c r="X45" t="n">
-        <v>910.3182015271507</v>
+        <v>1323.547087853844</v>
       </c>
       <c r="Y45" t="n">
-        <v>684.6775084624783</v>
+        <v>1097.906394789171</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="C46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="D46" t="n">
-        <v>489.8781323878365</v>
+        <v>284.2452476034182</v>
       </c>
       <c r="E46" t="n">
-        <v>346.7709190421547</v>
+        <v>284.2452476034182</v>
       </c>
       <c r="F46" t="n">
-        <v>206.4407349831176</v>
+        <v>284.2452476034182</v>
       </c>
       <c r="G46" t="n">
-        <v>43.39223831134681</v>
+        <v>114.6706284311899</v>
       </c>
       <c r="H46" t="n">
-        <v>43.39223831134681</v>
+        <v>114.6706284311899</v>
       </c>
       <c r="I46" t="n">
         <v>43.39223831134681</v>
@@ -7809,10 +7809,10 @@
         <v>43.39223831134681</v>
       </c>
       <c r="K46" t="n">
-        <v>71.56771987682809</v>
+        <v>71.56771987682811</v>
       </c>
       <c r="L46" t="n">
-        <v>160.7098817102414</v>
+        <v>160.7098817102415</v>
       </c>
       <c r="M46" t="n">
         <v>263.2936823595659</v>
@@ -7821,37 +7821,37 @@
         <v>371.4544057750809</v>
       </c>
       <c r="O46" t="n">
-        <v>449.3606938154187</v>
+        <v>449.3606938154188</v>
       </c>
       <c r="P46" t="n">
-        <v>489.8781323878365</v>
+        <v>489.8781323878366</v>
       </c>
       <c r="Q46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="R46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="S46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="T46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="U46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="V46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="W46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="X46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
       <c r="Y46" t="n">
-        <v>489.8781323878365</v>
+        <v>430.8943892708027</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>54.865789686125</v>
       </c>
       <c r="L12" t="n">
-        <v>74.29117589298126</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>269.9708882526448</v>
@@ -8786,10 +8786,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>95.26757669795323</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>54.86578968612497</v>
       </c>
       <c r="L15" t="n">
-        <v>189.5996545168053</v>
+        <v>129.2082463759155</v>
       </c>
       <c r="M15" t="n">
         <v>269.9708882526448</v>
@@ -9023,10 +9023,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>29.46478203976346</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.213011969896</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>54.865789686125</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>16.68948144623954</v>
       </c>
       <c r="M18" t="n">
         <v>269.9708882526448</v>
       </c>
       <c r="N18" t="n">
-        <v>252.098905607985</v>
+        <v>193.1929161567007</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>95.26757669795322</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.213011969896</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>54.865789686125</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>269.9708882526448</v>
+        <v>219.2659990128089</v>
       </c>
       <c r="N21" t="n">
-        <v>86.08553774432474</v>
+        <v>252.098905607985</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>29.46478203976343</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>81.21301196989599</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>41.55952150786352</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>140.9392484798465</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>65.54838795580382</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -10190,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>41.55952150786349</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3045437566416</v>
+        <v>209.8703186523366</v>
       </c>
       <c r="M30" t="n">
         <v>301.77688131</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.5483879558043</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>41.55952150786349</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>65.5483879558043</v>
+        <v>105.6958573485257</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>41.55952150786352</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.6958573485253</v>
+        <v>65.54838795580382</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>100.7917790871251</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>65.54838795580382</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.54838795580432</v>
+        <v>65.54838795580382</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315033</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461155</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>41.55952150786352</v>
+        <v>41.55952150786349</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -23311,22 +23311,22 @@
         <v>206.9021266852166</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>193.0168065454913</v>
       </c>
       <c r="W11" t="n">
         <v>63.54749487519672</v>
       </c>
       <c r="X11" t="n">
-        <v>176.0765143378888</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>107.9365984678797</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>24.75745136436103</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>148.2605703896413</v>
       </c>
       <c r="H12" t="n">
-        <v>79.68734300271889</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>90.69820171619743</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S12" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>213.0199265699567</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1962251491922</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23405,7 +23405,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R13" t="n">
-        <v>158.417467261357</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S13" t="n">
         <v>228.3660933928399</v>
@@ -23475,7 +23475,7 @@
         <v>288.6344225367242</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>115.70654189254</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23509,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>178.6785140113752</v>
+        <v>143.5845471662975</v>
       </c>
       <c r="H14" t="n">
-        <v>63.40761273612708</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T14" t="n">
         <v>218.5057460574135</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0781689449873</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>46.53081465858179</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23563,7 +23563,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>116.3681955612047</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>134.7987994575787</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -23591,13 +23591,13 @@
         <v>148.2605703896413</v>
       </c>
       <c r="H15" t="n">
-        <v>121.0607743439406</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>182.6000704870501</v>
       </c>
       <c r="T15" t="n">
-        <v>213.0199265699567</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>127.2980156470688</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23670,16 +23670,16 @@
         <v>168.2949770100594</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2164852645116</v>
+        <v>32.81401197260163</v>
       </c>
       <c r="I16" t="n">
-        <v>134.6803798488195</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>91.54969484442687</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9.399185363825382</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q16" t="n">
         <v>93.23694401510255</v>
@@ -23734,16 +23734,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>75.85652843060865</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>63.42319069165711</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>161.5526777883515</v>
       </c>
       <c r="G17" t="n">
         <v>417.9335161168677</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T17" t="n">
         <v>218.5057460574135</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V17" t="n">
         <v>46.53081465858185</v>
       </c>
       <c r="W17" t="n">
-        <v>142.5866444967526</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>71.27225470853344</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2605703896413</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>121.0607743439406</v>
@@ -23834,7 +23834,7 @@
         <v>90.69820171619743</v>
       </c>
       <c r="J18" t="n">
-        <v>6.744564135339218</v>
+        <v>6.744564135339203</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>182.6000704870501</v>
       </c>
       <c r="T18" t="n">
-        <v>213.0199265699567</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1962251491922</v>
+        <v>133.7778876849854</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.2949770100594</v>
+        <v>38.89250371814944</v>
       </c>
       <c r="H19" t="n">
         <v>162.2164852645116</v>
@@ -23913,10 +23913,10 @@
         <v>152.6495179793835</v>
       </c>
       <c r="J19" t="n">
-        <v>91.54969484442688</v>
+        <v>91.54969484442687</v>
       </c>
       <c r="K19" t="n">
-        <v>19.88364031691906</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>9.399185363825382</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q19" t="n">
         <v>93.23694401510255</v>
@@ -23946,7 +23946,7 @@
         <v>222.0276946227434</v>
       </c>
       <c r="U19" t="n">
-        <v>159.2319492448143</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23977,16 +23977,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>105.5615402043912</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>128.8502806894432</v>
       </c>
       <c r="G20" t="n">
         <v>417.9335161168677</v>
       </c>
       <c r="H20" t="n">
-        <v>337.7565816866972</v>
+        <v>63.40761273612696</v>
       </c>
       <c r="I20" t="n">
         <v>206.1329861685091</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>138.0543947935843</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>206.9021266852166</v>
@@ -24025,13 +24025,13 @@
         <v>218.5057460574135</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
-        <v>46.53081465858185</v>
+        <v>46.53081465858173</v>
       </c>
       <c r="W20" t="n">
-        <v>63.54749487519672</v>
+        <v>234.304286767689</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24059,19 +24059,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.2605703896413</v>
       </c>
       <c r="H21" t="n">
-        <v>121.0607743439406</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>90.69820171619743</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.744564135339218</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>104.6672283897153</v>
       </c>
       <c r="S21" t="n">
-        <v>182.6000704870501</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>116.2604636422156</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>225.971361725522</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>152.6495179793835</v>
       </c>
       <c r="J22" t="n">
-        <v>91.54969484442688</v>
+        <v>91.54969484442687</v>
       </c>
       <c r="K22" t="n">
-        <v>19.88364031691906</v>
+        <v>19.88364031691904</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9.399185363825382</v>
+        <v>9.399185363825367</v>
       </c>
       <c r="Q22" t="n">
         <v>93.23694401510255</v>
@@ -24180,7 +24180,7 @@
         <v>228.3660933928399</v>
       </c>
       <c r="T22" t="n">
-        <v>92.62522133083351</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U22" t="n">
         <v>288.6344225367242</v>
@@ -24189,7 +24189,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>160.9082337974254</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>285.0996452378481</v>
+        <v>236.0211998468243</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.0058835612621</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>328.2564647766019</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>170.370432068526</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.78399627252705</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>185.7636998243551</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.4450345452502</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0039583405388</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>19.21788942265795</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>222.4914702921369</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
@@ -24381,13 +24381,13 @@
         <v>167.878872980506</v>
       </c>
       <c r="H25" t="n">
-        <v>158.5169421653914</v>
+        <v>6.806614119001893</v>
       </c>
       <c r="I25" t="n">
         <v>140.1361349815415</v>
       </c>
       <c r="J25" t="n">
-        <v>62.13113995500206</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.39390568586352</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R25" t="n">
-        <v>166.4742609000565</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S25" t="n">
         <v>221.1145349868958</v>
@@ -24420,13 +24420,13 @@
         <v>220.2497955873789</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.611725953294</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0840481576152</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>231.2341213377501</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>417.0058835612621</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.2564647766019</v>
       </c>
       <c r="I26" t="n">
-        <v>170.370432068526</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.7636998243551</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.4450345452502</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0039583405388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>345.9418753832979</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>138.7833833478816</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.7642432161397</v>
       </c>
       <c r="H27" t="n">
-        <v>34.82648271166276</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>73.85140616125675</v>
       </c>
       <c r="S27" t="n">
-        <v>173.3810109266148</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.0193797609743</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1635720456723</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.878872980506</v>
       </c>
       <c r="H28" t="n">
-        <v>158.5169421653914</v>
+        <v>145.7334963374486</v>
       </c>
       <c r="I28" t="n">
         <v>140.1361349815415</v>
@@ -24648,13 +24648,13 @@
         <v>58.3939056858635</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>221.1145349868958</v>
       </c>
       <c r="T28" t="n">
-        <v>165.8175563386064</v>
+        <v>220.2497955873789</v>
       </c>
       <c r="U28" t="n">
         <v>288.611725953294</v>
@@ -24663,7 +24663,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24685,7 +24685,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24694,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.0058835612621</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>328.2564647766019</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.000796968431</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.78399627252705</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>68.20541824561781</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>118.4444013406133</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24767,10 +24767,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>147.7642432161397</v>
@@ -24812,13 +24812,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>75.07610303264735</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,13 +24840,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>11.29493729918323</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24855,13 +24855,13 @@
         <v>167.878872980506</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>158.5169421653914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>140.1361349815415</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R31" t="n">
-        <v>143.6313485521307</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S31" t="n">
         <v>221.1145349868958</v>
@@ -24922,19 +24922,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>328.2564647766019</v>
+        <v>300.0353119723186</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.78399627252705</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.7636998243551</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.4450345452502</v>
       </c>
       <c r="U32" t="n">
-        <v>182.3873917023261</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.74598536006344</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>116.2672987472278</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>173.3810109266148</v>
       </c>
       <c r="T33" t="n">
         <v>211.0193797609743</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1635720456723</v>
+        <v>229.5741621713634</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25089,16 +25089,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>24.51091499171403</v>
+        <v>167.878872980506</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>158.5169421653914</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>140.1361349815415</v>
       </c>
       <c r="J34" t="n">
-        <v>62.13113995500206</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.39390568586352</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R34" t="n">
-        <v>166.4742609000565</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S34" t="n">
         <v>221.1145349868958</v>
@@ -25131,13 +25131,13 @@
         <v>220.2497955873789</v>
       </c>
       <c r="U34" t="n">
-        <v>288.611725953294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>136.9013979069045</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.0058835612621</v>
       </c>
       <c r="H35" t="n">
         <v>328.2564647766019</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.78399627252705</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.7636998243551</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.4450345452502</v>
       </c>
       <c r="U35" t="n">
-        <v>43.72821952549398</v>
+        <v>250.0039583405388</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>355.3436177496836</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>142.5889195501236</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.7642432161397</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.0193797609743</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>212.6347895091383</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>161.3815592106257</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.878872980506</v>
@@ -25335,7 +25335,7 @@
         <v>140.1361349815415</v>
       </c>
       <c r="J37" t="n">
-        <v>62.13113995500206</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.39390568586352</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R37" t="n">
-        <v>166.4742609000565</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S37" t="n">
         <v>221.1145349868958</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.2497955873789</v>
       </c>
       <c r="U37" t="n">
-        <v>66.84048640494852</v>
+        <v>288.611725953294</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25399,7 +25399,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>95.6332301116264</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>328.2564647766019</v>
       </c>
       <c r="I38" t="n">
-        <v>170.370432068526</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.7636998243551</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>201.6171494967964</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>141.9986648764105</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.7642432161397</v>
       </c>
       <c r="H39" t="n">
         <v>116.2672987472278</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.85140616125676</v>
+        <v>73.85140616125675</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.0193797609743</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>170.2803278167935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -25572,7 +25572,7 @@
         <v>140.1361349815415</v>
       </c>
       <c r="J40" t="n">
-        <v>62.13113995500206</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.39390568586352</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R40" t="n">
-        <v>166.4742609000565</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S40" t="n">
         <v>221.1145349868958</v>
       </c>
       <c r="T40" t="n">
-        <v>220.2497955873789</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>288.611725953294</v>
+        <v>212.0231366556587</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>70.20912736185306</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>153.2568414594356</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>293.8392951018927</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.0058835612621</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>328.2564647766019</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>79.78399627252705</v>
+        <v>79.78399627252702</v>
       </c>
       <c r="S41" t="n">
         <v>185.7636998243551</v>
@@ -25684,13 +25684,13 @@
         <v>214.4450345452502</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0039583405388</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25709,25 +25709,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>61.9495544756049</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.7642432161397</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>116.2672987472278</v>
       </c>
       <c r="I42" t="n">
-        <v>4.839086871130377</v>
+        <v>73.60974420748028</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.85140616125676</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,10 +25797,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.878872980506</v>
+        <v>31.25898096328427</v>
       </c>
       <c r="H43" t="n">
         <v>158.5169421653914</v>
@@ -25809,7 +25809,7 @@
         <v>140.1361349815415</v>
       </c>
       <c r="J43" t="n">
-        <v>62.13113995500206</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.39390568586352</v>
+        <v>58.3939056858635</v>
       </c>
       <c r="R43" t="n">
-        <v>166.4742609000565</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>221.1145349868958</v>
@@ -25842,10 +25842,10 @@
         <v>220.2497955873789</v>
       </c>
       <c r="U43" t="n">
-        <v>91.69970600201943</v>
+        <v>288.611725953294</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
         <v>290.3107070893353</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.0058835612621</v>
       </c>
       <c r="H44" t="n">
         <v>328.2564647766019</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.4450345452502</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>318.7801247966412</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>2.722817392152365</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>62.11459208539335</v>
+        <v>147.7642432161397</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>173.3810109266149</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.0193797609743</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1635720456723</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>134.2946565833945</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26028,25 +26028,25 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>6.460861275452856</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>158.5169421653914</v>
       </c>
       <c r="I46" t="n">
-        <v>140.1361349815415</v>
+        <v>69.57052876289677</v>
       </c>
       <c r="J46" t="n">
-        <v>62.13113995500206</v>
+        <v>62.13113995500204</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.39390568586352</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>166.4742609000565</v>
+        <v>166.4742609000564</v>
       </c>
       <c r="S46" t="n">
         <v>221.1145349868958</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559486.029495033</v>
+        <v>559486.0294950327</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>559486.0294950329</v>
+        <v>559486.0294950327</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>559486.0294950329</v>
+        <v>559486.0294950327</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757159.6821257803</v>
+        <v>757159.6821257804</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757159.6821257804</v>
+        <v>757159.68212578</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>757159.6821257804</v>
+        <v>757159.6821257803</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757159.68212578</v>
+        <v>757159.6821257804</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>95193.05604516009</v>
       </c>
       <c r="C2" t="n">
-        <v>95193.0560451601</v>
+        <v>95193.05604516009</v>
       </c>
       <c r="D2" t="n">
-        <v>99739.37101448725</v>
+        <v>99739.37101448727</v>
       </c>
       <c r="E2" t="n">
-        <v>186154.2781427439</v>
+        <v>186154.278142744</v>
       </c>
       <c r="F2" t="n">
         <v>186154.278142744</v>
@@ -26334,7 +26334,7 @@
         <v>186154.2781427439</v>
       </c>
       <c r="I2" t="n">
-        <v>254136.148162099</v>
+        <v>254136.1481620991</v>
       </c>
       <c r="J2" t="n">
         <v>254136.1481620991</v>
@@ -26346,16 +26346,16 @@
         <v>254136.148162099</v>
       </c>
       <c r="M2" t="n">
-        <v>254136.148162099</v>
+        <v>254136.1481620991</v>
       </c>
       <c r="N2" t="n">
         <v>254136.148162099</v>
       </c>
       <c r="O2" t="n">
+        <v>254136.148162099</v>
+      </c>
+      <c r="P2" t="n">
         <v>254136.1481620991</v>
-      </c>
-      <c r="P2" t="n">
-        <v>254136.148162099</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>244976.9669292226</v>
+        <v>244976.9669292227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="C4" t="n">
-        <v>21154.01245448002</v>
+        <v>21154.01245448003</v>
       </c>
       <c r="D4" t="n">
         <v>20527.96160932765</v>
@@ -26432,7 +26432,7 @@
         <v>21910.55175018594</v>
       </c>
       <c r="G4" t="n">
-        <v>21910.55175018594</v>
+        <v>21910.55175018593</v>
       </c>
       <c r="H4" t="n">
         <v>21910.55175018594</v>
@@ -26447,7 +26447,7 @@
         <v>23397.85177176101</v>
       </c>
       <c r="L4" t="n">
-        <v>23397.85177176101</v>
+        <v>23397.85177176102</v>
       </c>
       <c r="M4" t="n">
         <v>23397.85177176101</v>
@@ -26459,7 +26459,7 @@
         <v>23397.85177176101</v>
       </c>
       <c r="P4" t="n">
-        <v>23397.85177176102</v>
+        <v>23397.851771761</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>23791.68139550617</v>
       </c>
       <c r="F5" t="n">
-        <v>23791.68139550617</v>
+        <v>23791.68139550618</v>
       </c>
       <c r="G5" t="n">
         <v>23791.68139550617</v>
       </c>
       <c r="H5" t="n">
-        <v>23791.68139550617</v>
+        <v>23791.68139550618</v>
       </c>
       <c r="I5" t="n">
         <v>45119.68464084509</v>
@@ -26499,7 +26499,7 @@
         <v>45119.68464084509</v>
       </c>
       <c r="L5" t="n">
-        <v>45119.68464084509</v>
+        <v>45119.6846408451</v>
       </c>
       <c r="M5" t="n">
         <v>45119.68464084509</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40411.44359068007</v>
+        <v>23606.98298283667</v>
       </c>
       <c r="C6" t="n">
-        <v>40411.44359068009</v>
+        <v>23606.98298283667</v>
       </c>
       <c r="D6" t="n">
-        <v>22063.47568718419</v>
+        <v>5511.588133192337</v>
       </c>
       <c r="E6" t="n">
-        <v>-182019.67089949</v>
+        <v>-193770.7302796897</v>
       </c>
       <c r="F6" t="n">
-        <v>140452.0449970519</v>
+        <v>128700.985616852</v>
       </c>
       <c r="G6" t="n">
-        <v>140452.0449970518</v>
+        <v>128700.985616852</v>
       </c>
       <c r="H6" t="n">
-        <v>140452.0449970518</v>
+        <v>128700.985616852</v>
       </c>
       <c r="I6" t="n">
-        <v>-59358.3551797297</v>
+        <v>-67332.6440032987</v>
       </c>
       <c r="J6" t="n">
-        <v>185618.611749493</v>
+        <v>177644.3229259239</v>
       </c>
       <c r="K6" t="n">
-        <v>185618.6117494929</v>
+        <v>177644.3229259239</v>
       </c>
       <c r="L6" t="n">
-        <v>185618.6117494929</v>
+        <v>177644.3229259239</v>
       </c>
       <c r="M6" t="n">
-        <v>117249.751291135</v>
+        <v>109275.462467566</v>
       </c>
       <c r="N6" t="n">
-        <v>185618.6117494929</v>
+        <v>177644.3229259239</v>
       </c>
       <c r="O6" t="n">
-        <v>185618.611749493</v>
+        <v>177644.3229259239</v>
       </c>
       <c r="P6" t="n">
-        <v>185618.6117494929</v>
+        <v>177644.322925924</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
-        <v>326.2047744638306</v>
+        <v>326.2047744638307</v>
       </c>
       <c r="G3" t="n">
-        <v>326.2047744638306</v>
+        <v>326.2047744638307</v>
       </c>
       <c r="H3" t="n">
-        <v>326.2047744638306</v>
+        <v>326.2047744638307</v>
       </c>
       <c r="I3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
       <c r="J3" t="n">
         <v>556.9533726707118</v>
       </c>
       <c r="K3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
       <c r="L3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
       <c r="M3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
       <c r="N3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
       <c r="O3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
       <c r="P3" t="n">
-        <v>556.9533726707117</v>
+        <v>556.9533726707118</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>274.3489689505702</v>
       </c>
       <c r="H4" t="n">
-        <v>274.3489689505702</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="I4" t="n">
         <v>542.4029788918351</v>
@@ -26819,7 +26819,7 @@
         <v>542.4029788918351</v>
       </c>
       <c r="L4" t="n">
-        <v>542.4029788918351</v>
+        <v>542.4029788918352</v>
       </c>
       <c r="M4" t="n">
         <v>542.4029788918351</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>268.054009941265</v>
+        <v>268.0540099412648</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55682238197722</v>
+        <v>50.55682238197723</v>
       </c>
       <c r="J14" t="n">
         <v>111.3013968910535</v>
@@ -32004,10 +32004,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L14" t="n">
-        <v>206.944964607843</v>
+        <v>206.9449646078431</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2661471520486</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N14" t="n">
         <v>233.9920941488139</v>
@@ -32022,13 +32022,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R14" t="n">
-        <v>82.37572126196423</v>
+        <v>82.37572126196424</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88298009284238</v>
+        <v>29.88298009284239</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740548342574546</v>
+        <v>5.740548342574547</v>
       </c>
       <c r="U14" t="n">
         <v>0.1049100782195233</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7016480054505038</v>
       </c>
       <c r="H15" t="n">
-        <v>6.776442578956181</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I15" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J15" t="n">
-        <v>66.29034949740921</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K15" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L15" t="n">
-        <v>152.3468618852069</v>
+        <v>152.346861885207</v>
       </c>
       <c r="M15" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N15" t="n">
-        <v>182.4869520842518</v>
+        <v>182.4869520842519</v>
       </c>
       <c r="O15" t="n">
-        <v>166.9399094371643</v>
+        <v>166.9399094371644</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9839950057194</v>
+        <v>133.9839950057195</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.56475241505026</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R15" t="n">
         <v>43.5637244085848</v>
@@ -32107,10 +32107,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T15" t="n">
-        <v>2.828133846530757</v>
+        <v>2.828133846530758</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5882381178855962</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229971629928304</v>
+        <v>5.229971629928305</v>
       </c>
       <c r="I16" t="n">
         <v>17.68992449059593</v>
@@ -32159,22 +32159,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K16" t="n">
-        <v>68.34257405979925</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L16" t="n">
-        <v>87.45496527182765</v>
+        <v>87.45496527182766</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20899878819394</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01647489425679</v>
+        <v>90.0164748942568</v>
       </c>
       <c r="O16" t="n">
-        <v>83.1447841535023</v>
+        <v>83.14478415350231</v>
       </c>
       <c r="P16" t="n">
-        <v>71.14472654863607</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q16" t="n">
         <v>49.25692094403843</v>
@@ -32232,7 +32232,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55682238197722</v>
+        <v>50.55682238197723</v>
       </c>
       <c r="J17" t="n">
         <v>111.3013968910535</v>
@@ -32241,10 +32241,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L17" t="n">
-        <v>206.944964607843</v>
+        <v>206.9449646078431</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2661471520486</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N17" t="n">
         <v>233.9920941488139</v>
@@ -32259,13 +32259,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R17" t="n">
-        <v>82.37572126196423</v>
+        <v>82.37572126196424</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88298009284238</v>
+        <v>29.88298009284239</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740548342574546</v>
+        <v>5.740548342574547</v>
       </c>
       <c r="U17" t="n">
         <v>0.1049100782195233</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7016480054505038</v>
       </c>
       <c r="H18" t="n">
-        <v>6.776442578956181</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I18" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J18" t="n">
-        <v>66.29034949740921</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K18" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L18" t="n">
-        <v>152.3468618852069</v>
+        <v>152.346861885207</v>
       </c>
       <c r="M18" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N18" t="n">
-        <v>182.4869520842518</v>
+        <v>182.4869520842519</v>
       </c>
       <c r="O18" t="n">
-        <v>166.9399094371643</v>
+        <v>166.9399094371644</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9839950057194</v>
+        <v>133.9839950057195</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.56475241505026</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R18" t="n">
         <v>43.5637244085848</v>
@@ -32344,10 +32344,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T18" t="n">
-        <v>2.828133846530757</v>
+        <v>2.828133846530758</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5882381178855962</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229971629928304</v>
+        <v>5.229971629928305</v>
       </c>
       <c r="I19" t="n">
         <v>17.68992449059593</v>
@@ -32396,22 +32396,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K19" t="n">
-        <v>68.34257405979925</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L19" t="n">
-        <v>87.45496527182765</v>
+        <v>87.45496527182766</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20899878819394</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01647489425679</v>
+        <v>90.0164748942568</v>
       </c>
       <c r="O19" t="n">
-        <v>83.1447841535023</v>
+        <v>83.14478415350231</v>
       </c>
       <c r="P19" t="n">
-        <v>71.14472654863607</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q19" t="n">
         <v>49.25692094403843</v>
@@ -32469,7 +32469,7 @@
         <v>13.43012923207117</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55682238197722</v>
+        <v>50.55682238197723</v>
       </c>
       <c r="J20" t="n">
         <v>111.3013968910535</v>
@@ -32478,10 +32478,10 @@
         <v>166.8119420289588</v>
       </c>
       <c r="L20" t="n">
-        <v>206.944964607843</v>
+        <v>206.9449646078431</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2661471520486</v>
+        <v>230.2661471520487</v>
       </c>
       <c r="N20" t="n">
         <v>233.9920941488139</v>
@@ -32496,13 +32496,13 @@
         <v>141.613852616607</v>
       </c>
       <c r="R20" t="n">
-        <v>82.37572126196423</v>
+        <v>82.37572126196424</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88298009284238</v>
+        <v>29.88298009284239</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740548342574546</v>
+        <v>5.740548342574547</v>
       </c>
       <c r="U20" t="n">
         <v>0.1049100782195233</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7016480054505037</v>
+        <v>0.7016480054505038</v>
       </c>
       <c r="H21" t="n">
-        <v>6.776442578956181</v>
+        <v>6.776442578956182</v>
       </c>
       <c r="I21" t="n">
         <v>24.15761773151954</v>
       </c>
       <c r="J21" t="n">
-        <v>66.29034949740921</v>
+        <v>66.29034949740922</v>
       </c>
       <c r="K21" t="n">
         <v>113.300765862593</v>
       </c>
       <c r="L21" t="n">
-        <v>152.3468618852069</v>
+        <v>152.346861885207</v>
       </c>
       <c r="M21" t="n">
         <v>177.7816020827877</v>
       </c>
       <c r="N21" t="n">
-        <v>182.4869520842518</v>
+        <v>182.4869520842519</v>
       </c>
       <c r="O21" t="n">
-        <v>166.9399094371643</v>
+        <v>166.9399094371644</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9839950057194</v>
+        <v>133.9839950057195</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.56475241505026</v>
+        <v>89.56475241505028</v>
       </c>
       <c r="R21" t="n">
         <v>43.5637244085848</v>
@@ -32581,10 +32581,10 @@
         <v>13.03280396088983</v>
       </c>
       <c r="T21" t="n">
-        <v>2.828133846530757</v>
+        <v>2.828133846530758</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04616105299016473</v>
+        <v>0.04616105299016474</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5882381178855961</v>
+        <v>0.5882381178855962</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229971629928304</v>
+        <v>5.229971629928305</v>
       </c>
       <c r="I22" t="n">
         <v>17.68992449059593</v>
@@ -32633,22 +32633,22 @@
         <v>41.58843493451165</v>
       </c>
       <c r="K22" t="n">
-        <v>68.34257405979925</v>
+        <v>68.34257405979926</v>
       </c>
       <c r="L22" t="n">
-        <v>87.45496527182765</v>
+        <v>87.45496527182766</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20899878819394</v>
+        <v>92.20899878819395</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01647489425679</v>
+        <v>90.0164748942568</v>
       </c>
       <c r="O22" t="n">
-        <v>83.1447841535023</v>
+        <v>83.14478415350231</v>
       </c>
       <c r="P22" t="n">
-        <v>71.14472654863607</v>
+        <v>71.14472654863609</v>
       </c>
       <c r="Q22" t="n">
         <v>49.25692094403843</v>
@@ -32703,43 +32703,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H23" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I23" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J23" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K23" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L23" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M23" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N23" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O23" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P23" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R23" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S23" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T23" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U23" t="n">
         <v>0.1791206826679674</v>
@@ -32785,13 +32785,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I24" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J24" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K24" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L24" t="n">
         <v>260.1129878685244</v>
@@ -32800,28 +32800,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N24" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O24" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P24" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R24" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S24" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T24" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H25" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I25" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J25" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K25" t="n">
         <v>116.6862967660933</v>
@@ -32888,10 +32888,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R25" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S25" t="n">
         <v>17.502944514914</v>
@@ -32900,7 +32900,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33177,43 +33177,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H29" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I29" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J29" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K29" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L29" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M29" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N29" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O29" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P29" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R29" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S29" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T29" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U29" t="n">
         <v>0.1791206826679674</v>
@@ -33259,13 +33259,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I30" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J30" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K30" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L30" t="n">
         <v>260.1129878685244</v>
@@ -33274,28 +33274,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N30" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O30" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P30" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R30" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S30" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T30" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H31" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I31" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J31" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K31" t="n">
         <v>116.6862967660933</v>
@@ -33362,10 +33362,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R31" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S31" t="n">
         <v>17.502944514914</v>
@@ -33374,7 +33374,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H32" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I32" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J32" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K32" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L32" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M32" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N32" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O32" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P32" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R32" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S32" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T32" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U32" t="n">
         <v>0.1791206826679674</v>
@@ -33496,13 +33496,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I33" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J33" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K33" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L33" t="n">
         <v>260.1129878685244</v>
@@ -33511,28 +33511,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N33" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O33" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P33" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R33" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S33" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T33" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,13 +33572,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H34" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I34" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J34" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K34" t="n">
         <v>116.6862967660933</v>
@@ -33599,10 +33599,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R34" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S34" t="n">
         <v>17.502944514914</v>
@@ -33611,7 +33611,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,43 +33651,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H35" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I35" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J35" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K35" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L35" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M35" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N35" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O35" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P35" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R35" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S35" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T35" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U35" t="n">
         <v>0.1791206826679674</v>
@@ -33733,13 +33733,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I36" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J36" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K36" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L36" t="n">
         <v>260.1129878685244</v>
@@ -33748,28 +33748,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N36" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O36" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P36" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R36" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S36" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T36" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,13 +33809,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H37" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I37" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J37" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K37" t="n">
         <v>116.6862967660933</v>
@@ -33836,10 +33836,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R37" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S37" t="n">
         <v>17.502944514914</v>
@@ -33848,7 +33848,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H38" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I38" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J38" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K38" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L38" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M38" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N38" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O38" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P38" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R38" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S38" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T38" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U38" t="n">
         <v>0.1791206826679674</v>
@@ -33970,13 +33970,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I39" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J39" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K39" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L39" t="n">
         <v>260.1129878685244</v>
@@ -33985,28 +33985,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N39" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O39" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P39" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R39" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S39" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T39" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,13 +34046,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H40" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I40" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J40" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K40" t="n">
         <v>116.6862967660933</v>
@@ -34073,10 +34073,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R40" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S40" t="n">
         <v>17.502944514914</v>
@@ -34085,7 +34085,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H41" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I41" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J41" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K41" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L41" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M41" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N41" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O41" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P41" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R41" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S41" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T41" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U41" t="n">
         <v>0.1791206826679674</v>
@@ -34207,13 +34207,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I42" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J42" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K42" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L42" t="n">
         <v>260.1129878685244</v>
@@ -34222,28 +34222,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N42" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O42" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P42" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R42" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S42" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T42" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,13 +34283,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H43" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I43" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J43" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K43" t="n">
         <v>116.6862967660933</v>
@@ -34310,10 +34310,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R43" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S43" t="n">
         <v>17.502944514914</v>
@@ -34322,7 +34322,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>2.239008533349593</v>
       </c>
       <c r="H44" t="n">
-        <v>22.93024614216652</v>
+        <v>22.93024614216653</v>
       </c>
       <c r="I44" t="n">
-        <v>86.31937648196028</v>
+        <v>86.31937648196029</v>
       </c>
       <c r="J44" t="n">
         <v>190.0330505073802</v>
       </c>
       <c r="K44" t="n">
-        <v>284.8102817240685</v>
+        <v>284.8102817240686</v>
       </c>
       <c r="L44" t="n">
-        <v>353.3323391265662</v>
+        <v>353.3323391265663</v>
       </c>
       <c r="M44" t="n">
-        <v>393.150307131522</v>
+        <v>393.1503071315221</v>
       </c>
       <c r="N44" t="n">
-        <v>399.5118901269016</v>
+        <v>399.5118901269017</v>
       </c>
       <c r="O44" t="n">
-        <v>377.2477490234065</v>
+        <v>377.2477490234066</v>
       </c>
       <c r="P44" t="n">
-        <v>321.9722258563384</v>
+        <v>321.9722258563385</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.787732755756</v>
+        <v>241.7877327557561</v>
       </c>
       <c r="R44" t="n">
         <v>140.6461197830215</v>
       </c>
       <c r="S44" t="n">
-        <v>51.0214069537039</v>
+        <v>51.02140695370392</v>
       </c>
       <c r="T44" t="n">
-        <v>9.801259854737848</v>
+        <v>9.80125985473785</v>
       </c>
       <c r="U44" t="n">
         <v>0.1791206826679674</v>
@@ -34444,13 +34444,13 @@
         <v>11.56991817566894</v>
       </c>
       <c r="I45" t="n">
-        <v>41.24607524023668</v>
+        <v>41.24607524023669</v>
       </c>
       <c r="J45" t="n">
-        <v>113.1823830254698</v>
+        <v>113.1823830254699</v>
       </c>
       <c r="K45" t="n">
-        <v>193.4467200152603</v>
+        <v>193.4467200152604</v>
       </c>
       <c r="L45" t="n">
         <v>260.1129878685244</v>
@@ -34459,28 +34459,28 @@
         <v>303.5395881055379</v>
       </c>
       <c r="N45" t="n">
-        <v>311.5733777924579</v>
+        <v>311.573377792458</v>
       </c>
       <c r="O45" t="n">
-        <v>285.0287698798877</v>
+        <v>285.0287698798878</v>
       </c>
       <c r="P45" t="n">
-        <v>228.7607164088438</v>
+        <v>228.7607164088439</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.920480737815</v>
+        <v>152.9204807378151</v>
       </c>
       <c r="R45" t="n">
-        <v>74.37954663704338</v>
+        <v>74.37954663704339</v>
       </c>
       <c r="S45" t="n">
         <v>22.25186352132512</v>
       </c>
       <c r="T45" t="n">
-        <v>4.828680655513056</v>
+        <v>4.828680655513057</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07881415651000641</v>
+        <v>0.07881415651000642</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,13 +34520,13 @@
         <v>1.004342147438988</v>
       </c>
       <c r="H46" t="n">
-        <v>8.929514729048465</v>
+        <v>8.929514729048467</v>
       </c>
       <c r="I46" t="n">
         <v>30.20330748843795</v>
       </c>
       <c r="J46" t="n">
-        <v>71.00698982393646</v>
+        <v>71.00698982393648</v>
       </c>
       <c r="K46" t="n">
         <v>116.6862967660933</v>
@@ -34547,10 +34547,10 @@
         <v>121.4706175411663</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.09995927327746</v>
+        <v>84.09995927327748</v>
       </c>
       <c r="R46" t="n">
-        <v>45.15887510212031</v>
+        <v>45.15887510212032</v>
       </c>
       <c r="S46" t="n">
         <v>17.502944514914</v>
@@ -34559,7 +34559,7 @@
         <v>4.29128008451204</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0547822989512176</v>
+        <v>0.05478229895121761</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>57.60169444674169</v>
+        <v>223.615062310402</v>
       </c>
       <c r="M12" t="n">
         <v>274.3489689505702</v>
@@ -35506,10 +35506,10 @@
         <v>248.1952741062629</v>
       </c>
       <c r="P12" t="n">
-        <v>176.8990920389158</v>
+        <v>65.80279465818977</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.91707048293421</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,16 +35658,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N14" t="n">
-        <v>237.5089635799387</v>
+        <v>237.5089635799388</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9907987939227</v>
+        <v>186.9907987939228</v>
       </c>
       <c r="P14" t="n">
-        <v>114.9988128932574</v>
+        <v>114.9988128932575</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.981024917396837</v>
+        <v>7.981024917396866</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>116.507683898026</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>172.9101730705657</v>
+        <v>112.518764929676</v>
       </c>
       <c r="M15" t="n">
         <v>274.3489689505702</v>
@@ -35743,7 +35743,7 @@
         <v>248.1952741062629</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>176.8990920389159</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>28.1792668076442</v>
+        <v>28.17926680764421</v>
       </c>
       <c r="M16" t="n">
-        <v>38.39380264143657</v>
+        <v>38.39380264143658</v>
       </c>
       <c r="N16" t="n">
-        <v>45.57799116188353</v>
+        <v>45.57799116188355</v>
       </c>
       <c r="O16" t="n">
-        <v>19.87880704734596</v>
+        <v>19.87880704734597</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35895,16 +35895,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N17" t="n">
-        <v>237.5089635799387</v>
+        <v>237.5089635799388</v>
       </c>
       <c r="O17" t="n">
-        <v>186.9907987939227</v>
+        <v>186.9907987939228</v>
       </c>
       <c r="P17" t="n">
-        <v>114.9988128932574</v>
+        <v>114.9988128932575</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.981024917396837</v>
+        <v>7.981024917396866</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>116.507683898026</v>
       </c>
       <c r="L18" t="n">
-        <v>223.615062310402</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>274.3489689505702</v>
       </c>
       <c r="N18" t="n">
-        <v>274.3489689505702</v>
+        <v>215.4429794992859</v>
       </c>
       <c r="O18" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P18" t="n">
-        <v>65.80279465818977</v>
+        <v>176.8990920389159</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>54.91707048293422</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>28.1792668076442</v>
+        <v>28.17926680764421</v>
       </c>
       <c r="M19" t="n">
-        <v>38.39380264143657</v>
+        <v>38.39380264143658</v>
       </c>
       <c r="N19" t="n">
-        <v>45.57799116188353</v>
+        <v>45.57799116188355</v>
       </c>
       <c r="O19" t="n">
-        <v>19.87880704734596</v>
+        <v>19.87880704734597</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>240.5285123181314</v>
       </c>
       <c r="N20" t="n">
-        <v>237.5089635799387</v>
+        <v>237.5089635799388</v>
       </c>
       <c r="O20" t="n">
-        <v>186.9907987939227</v>
+        <v>186.9907987939228</v>
       </c>
       <c r="P20" t="n">
-        <v>114.9988128932574</v>
+        <v>114.9988128932575</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.981024917396837</v>
+        <v>7.981024917396866</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>116.507683898026</v>
       </c>
       <c r="L21" t="n">
         <v>223.615062310402</v>
       </c>
       <c r="M21" t="n">
-        <v>274.3489689505702</v>
+        <v>223.6440797107342</v>
       </c>
       <c r="N21" t="n">
-        <v>108.3356010869099</v>
+        <v>274.3489689505703</v>
       </c>
       <c r="O21" t="n">
         <v>248.1952741062629</v>
       </c>
       <c r="P21" t="n">
-        <v>176.8990920389158</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.91707048293421</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.1792668076442</v>
+        <v>28.17926680764421</v>
       </c>
       <c r="M22" t="n">
-        <v>38.39380264143657</v>
+        <v>38.39380264143658</v>
       </c>
       <c r="N22" t="n">
-        <v>45.57799116188353</v>
+        <v>45.57799116188355</v>
       </c>
       <c r="O22" t="n">
-        <v>19.87880704734596</v>
+        <v>19.87880704734597</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632677</v>
       </c>
       <c r="K23" t="n">
-        <v>226.346890795307</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L23" t="n">
         <v>336.3417798918737</v>
@@ -36369,13 +36369,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N23" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O23" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P23" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q23" t="n">
         <v>108.1549050565459</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>40.14746939272143</v>
       </c>
       <c r="K24" t="n">
-        <v>166.2194129463889</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L24" t="n">
         <v>331.3811882937194</v>
@@ -36448,16 +36448,16 @@
         <v>431.9129480306755</v>
       </c>
       <c r="N24" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O24" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P24" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.272798805699</v>
+        <v>47.69110430867262</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L25" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M25" t="n">
         <v>103.6200006558833</v>
@@ -36530,10 +36530,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O25" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P25" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632677</v>
       </c>
       <c r="K29" t="n">
-        <v>226.346890795307</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L29" t="n">
         <v>336.3417798918737</v>
@@ -36843,13 +36843,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N29" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O29" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P29" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q29" t="n">
         <v>108.1549050565459</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.1474693927214</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>196.6536380506933</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L30" t="n">
-        <v>331.3811882937194</v>
+        <v>300.9469631894145</v>
       </c>
       <c r="M30" t="n">
         <v>431.9129480306755</v>
       </c>
       <c r="N30" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O30" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P30" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.69110430867308</v>
+        <v>118.272798805699</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L31" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M31" t="n">
         <v>103.6200006558833</v>
@@ -37004,10 +37004,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O31" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P31" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632677</v>
       </c>
       <c r="K32" t="n">
-        <v>226.346890795307</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L32" t="n">
         <v>336.3417798918737</v>
@@ -37080,13 +37080,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N32" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O32" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P32" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q32" t="n">
         <v>108.1549050565459</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.1474693927214</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>196.6536380506933</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L33" t="n">
         <v>331.3811882937194</v>
@@ -37159,16 +37159,16 @@
         <v>431.9129480306755</v>
       </c>
       <c r="N33" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O33" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P33" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.69110430867308</v>
+        <v>87.83857370139451</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L34" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M34" t="n">
         <v>103.6200006558833</v>
@@ -37241,10 +37241,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O34" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P34" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632677</v>
       </c>
       <c r="K35" t="n">
-        <v>226.346890795307</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L35" t="n">
         <v>336.3417798918737</v>
@@ -37317,13 +37317,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N35" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O35" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q35" t="n">
         <v>108.1549050565459</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>40.14746939272143</v>
       </c>
       <c r="K36" t="n">
-        <v>196.6536380506933</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L36" t="n">
         <v>331.3811882937194</v>
@@ -37396,16 +37396,16 @@
         <v>431.9129480306755</v>
       </c>
       <c r="N36" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O36" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P36" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.83857370139405</v>
+        <v>47.69110430867262</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L37" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M37" t="n">
         <v>103.6200006558833</v>
@@ -37478,10 +37478,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O37" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P37" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632677</v>
       </c>
       <c r="K38" t="n">
-        <v>226.346890795307</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L38" t="n">
         <v>336.3417798918737</v>
@@ -37554,13 +37554,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N38" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O38" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P38" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q38" t="n">
         <v>108.1549050565459</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>40.1474693927214</v>
+        <v>40.14746939272143</v>
       </c>
       <c r="K39" t="n">
-        <v>126.0719435536675</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L39" t="n">
         <v>331.3811882937194</v>
@@ -37633,16 +37633,16 @@
         <v>431.9129480306755</v>
       </c>
       <c r="N39" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O39" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P39" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q39" t="n">
-        <v>118.272798805699</v>
+        <v>47.69110430867262</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L40" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M40" t="n">
         <v>103.6200006558833</v>
@@ -37715,10 +37715,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O40" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P40" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632677</v>
       </c>
       <c r="K41" t="n">
-        <v>226.346890795307</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L41" t="n">
         <v>336.3417798918737</v>
@@ -37791,13 +37791,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N41" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O41" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P41" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q41" t="n">
         <v>108.1549050565459</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>40.1474693927214</v>
+        <v>40.14746939272143</v>
       </c>
       <c r="K42" t="n">
-        <v>196.6536380506933</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L42" t="n">
         <v>331.3811882937194</v>
@@ -37870,16 +37870,16 @@
         <v>431.9129480306755</v>
       </c>
       <c r="N42" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O42" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P42" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q42" t="n">
-        <v>47.69110430867308</v>
+        <v>47.69110430867262</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L43" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M43" t="n">
         <v>103.6200006558833</v>
@@ -37952,10 +37952,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O43" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P43" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>78.73165361632674</v>
+        <v>78.73165361632623</v>
       </c>
       <c r="K44" t="n">
-        <v>226.3468907953078</v>
+        <v>226.3468907953071</v>
       </c>
       <c r="L44" t="n">
         <v>336.3417798918737</v>
@@ -38028,13 +38028,13 @@
         <v>403.4126722976048</v>
       </c>
       <c r="N44" t="n">
-        <v>403.0287595580264</v>
+        <v>403.0287595580265</v>
       </c>
       <c r="O44" t="n">
-        <v>343.2864485472077</v>
+        <v>343.2864485472078</v>
       </c>
       <c r="P44" t="n">
-        <v>248.3935339300303</v>
+        <v>248.3935339300304</v>
       </c>
       <c r="Q44" t="n">
         <v>108.1549050565459</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>196.6536380506933</v>
+        <v>196.6536380506934</v>
       </c>
       <c r="L45" t="n">
         <v>331.3811882937194</v>
@@ -38107,13 +38107,13 @@
         <v>431.9129480306755</v>
       </c>
       <c r="N45" t="n">
-        <v>461.9503476254139</v>
+        <v>461.950347625414</v>
       </c>
       <c r="O45" t="n">
-        <v>366.2841345489862</v>
+        <v>366.2841345489863</v>
       </c>
       <c r="P45" t="n">
-        <v>271.6758134420402</v>
+        <v>271.6758134420403</v>
       </c>
       <c r="Q45" t="n">
         <v>87.83857370139405</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>28.46008238937503</v>
+        <v>28.46008238937505</v>
       </c>
       <c r="L46" t="n">
-        <v>90.04258771051852</v>
+        <v>90.04258771051855</v>
       </c>
       <c r="M46" t="n">
         <v>103.6200006558833</v>
@@ -38189,10 +38189,10 @@
         <v>109.2532559752677</v>
       </c>
       <c r="O46" t="n">
-        <v>78.69322024276543</v>
+        <v>78.69322024276546</v>
       </c>
       <c r="P46" t="n">
-        <v>40.92670562870485</v>
+        <v>40.92670562870488</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
